--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8402536315826392</v>
+        <v>0.840253631582638</v>
       </c>
       <c r="D2">
-        <v>0.8613792986250239</v>
+        <v>0.8613792986250232</v>
       </c>
       <c r="E2">
-        <v>0.8690059049332561</v>
+        <v>0.8690059049332554</v>
       </c>
       <c r="F2">
-        <v>0.7286588935062549</v>
+        <v>0.7286588935062531</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.003332356780178</v>
       </c>
       <c r="J2">
-        <v>0.8685470859892359</v>
+        <v>0.8685470859892348</v>
       </c>
       <c r="K2">
-        <v>0.8751797186907884</v>
+        <v>0.8751797186907875</v>
       </c>
       <c r="L2">
-        <v>0.8826519803943632</v>
+        <v>0.8826519803943624</v>
       </c>
       <c r="M2">
-        <v>0.7458678777326142</v>
+        <v>0.7458678777326123</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8819887359292229</v>
+        <v>0.8819887359292214</v>
       </c>
       <c r="D3">
-        <v>0.8988535084095541</v>
+        <v>0.8988535084095529</v>
       </c>
       <c r="E3">
-        <v>0.9043291038464063</v>
+        <v>0.9043291038464051</v>
       </c>
       <c r="F3">
-        <v>0.813471044511633</v>
+        <v>0.8134710445116322</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.017627276338883</v>
       </c>
       <c r="J3">
-        <v>0.9063099800338976</v>
+        <v>0.9063099800338965</v>
       </c>
       <c r="K3">
-        <v>0.9109680635722468</v>
+        <v>0.9109680635722456</v>
       </c>
       <c r="L3">
-        <v>0.916352534134756</v>
+        <v>0.9163525341347548</v>
       </c>
       <c r="M3">
-        <v>0.827217522939241</v>
+        <v>0.8272175229392402</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8997717862563889</v>
+        <v>0.8997717862563882</v>
       </c>
       <c r="D4">
-        <v>0.9147737224086723</v>
+        <v>0.9147737224086719</v>
       </c>
       <c r="E4">
-        <v>0.9193714688534933</v>
+        <v>0.9193714688534926</v>
       </c>
       <c r="F4">
-        <v>0.846405040694197</v>
+        <v>0.8464050406941972</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.023261479697714</v>
       </c>
       <c r="J4">
-        <v>0.9221402137881201</v>
+        <v>0.9221402137881195</v>
       </c>
       <c r="K4">
-        <v>0.9260226079298154</v>
+        <v>0.9260226079298151</v>
       </c>
       <c r="L4">
-        <v>0.9305513720991085</v>
+        <v>0.9305513720991079</v>
       </c>
       <c r="M4">
         <v>0.858794910417684</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9063330590111454</v>
+        <v>0.9063330590111457</v>
       </c>
       <c r="D5">
-        <v>0.9206434852404448</v>
+        <v>0.9206434852404451</v>
       </c>
       <c r="E5">
-        <v>0.9249225038387374</v>
+        <v>0.9249225038387375</v>
       </c>
       <c r="F5">
-        <v>0.858169354631903</v>
+        <v>0.8581693546319021</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.025275699726952</v>
       </c>
       <c r="J5">
-        <v>0.9279480468268411</v>
+        <v>0.9279480468268415</v>
       </c>
       <c r="K5">
-        <v>0.9315528649112699</v>
+        <v>0.9315528649112701</v>
       </c>
       <c r="L5">
-        <v>0.935770311765235</v>
+        <v>0.9357703117652351</v>
       </c>
       <c r="M5">
-        <v>0.8700681181892145</v>
+        <v>0.8700681181892138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9073936243744841</v>
+        <v>0.9073936243744861</v>
       </c>
       <c r="D6">
-        <v>0.9215921017122262</v>
+        <v>0.9215921017122279</v>
       </c>
       <c r="E6">
-        <v>0.9258198544804128</v>
+        <v>0.9258198544804144</v>
       </c>
       <c r="F6">
-        <v>0.8600525728647211</v>
+        <v>0.8600525728647229</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.02559799744327</v>
       </c>
       <c r="J6">
-        <v>0.9288852305318404</v>
+        <v>0.9288852305318424</v>
       </c>
       <c r="K6">
-        <v>0.9324456039431944</v>
+        <v>0.9324456039431965</v>
       </c>
       <c r="L6">
-        <v>0.9366129441583404</v>
+        <v>0.9366129441583421</v>
       </c>
       <c r="M6">
-        <v>0.8718723027383253</v>
+        <v>0.8718723027383271</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8998624276329071</v>
+        <v>0.8998624276329059</v>
       </c>
       <c r="D7">
-        <v>0.9148548241734535</v>
+        <v>0.9148548241734523</v>
       </c>
       <c r="E7">
-        <v>0.9194481489859406</v>
+        <v>0.9194481489859395</v>
       </c>
       <c r="F7">
-        <v>0.8465689160880254</v>
+        <v>0.8465689160880243</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.02328954264076</v>
       </c>
       <c r="J7">
-        <v>0.9222205637338982</v>
+        <v>0.9222205637338969</v>
       </c>
       <c r="K7">
-        <v>0.9260990923572704</v>
+        <v>0.9260990923572694</v>
       </c>
       <c r="L7">
-        <v>0.9306235400689965</v>
+        <v>0.9306235400689951</v>
       </c>
       <c r="M7">
-        <v>0.8589519734338564</v>
+        <v>0.8589519734338552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D8">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E8">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F8">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J8">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K8">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L8">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M8">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D9">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E9">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F9">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J9">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K9">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L9">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M9">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D10">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E10">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F10">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J10">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K10">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L10">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M10">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D11">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E11">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F11">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J11">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K11">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L11">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M11">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D12">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E12">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F12">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J12">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K12">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L12">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M12">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D13">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E13">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F13">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J13">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K13">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L13">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M13">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D14">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E14">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F14">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J14">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K14">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L14">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M14">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D15">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E15">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F15">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J15">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K15">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L15">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M15">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D16">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E16">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F16">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J16">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K16">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L16">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M16">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D17">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E17">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F17">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J17">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K17">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L17">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M17">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D18">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E18">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F18">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J18">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K18">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L18">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M18">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D19">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E19">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F19">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J19">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K19">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L19">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M19">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D20">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E20">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F20">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J20">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K20">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L20">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M20">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D21">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E21">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F21">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J21">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K21">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L21">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M21">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D22">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E22">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F22">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J22">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K22">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L22">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M22">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D23">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E23">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F23">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J23">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K23">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L23">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M23">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D24">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E24">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F24">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J24">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K24">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L24">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M24">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8581402614494031</v>
+        <v>0.8581402614493984</v>
       </c>
       <c r="D25">
-        <v>0.8774652461985015</v>
+        <v>0.8774652461984972</v>
       </c>
       <c r="E25">
-        <v>0.8841528835821931</v>
+        <v>0.8841528835821892</v>
       </c>
       <c r="F25">
-        <v>0.7665112198676806</v>
+        <v>0.7665112198676741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.009656921746857</v>
+        <v>1.009656921746856</v>
       </c>
       <c r="J25">
-        <v>0.8848508895480306</v>
+        <v>0.884850889548026</v>
       </c>
       <c r="K25">
-        <v>0.8906078189361168</v>
+        <v>0.8906078189361124</v>
       </c>
       <c r="L25">
-        <v>0.8971700405846883</v>
+        <v>0.8971700405846843</v>
       </c>
       <c r="M25">
-        <v>0.7821709690997046</v>
+        <v>0.7821709690996983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.840253631582638</v>
+        <v>0.8402536315826392</v>
       </c>
       <c r="D2">
-        <v>0.8613792986250232</v>
+        <v>0.8613792986250239</v>
       </c>
       <c r="E2">
-        <v>0.8690059049332554</v>
+        <v>0.8690059049332561</v>
       </c>
       <c r="F2">
-        <v>0.7286588935062531</v>
+        <v>0.7286588935062549</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.003332356780178</v>
       </c>
       <c r="J2">
-        <v>0.8685470859892348</v>
+        <v>0.8685470859892359</v>
       </c>
       <c r="K2">
-        <v>0.8751797186907875</v>
+        <v>0.8751797186907884</v>
       </c>
       <c r="L2">
-        <v>0.8826519803943624</v>
+        <v>0.8826519803943632</v>
       </c>
       <c r="M2">
-        <v>0.7458678777326123</v>
+        <v>0.7458678777326142</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8819887359292214</v>
+        <v>0.8819887359292229</v>
       </c>
       <c r="D3">
-        <v>0.8988535084095529</v>
+        <v>0.8988535084095541</v>
       </c>
       <c r="E3">
-        <v>0.9043291038464051</v>
+        <v>0.9043291038464063</v>
       </c>
       <c r="F3">
-        <v>0.8134710445116322</v>
+        <v>0.813471044511633</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.017627276338883</v>
       </c>
       <c r="J3">
-        <v>0.9063099800338965</v>
+        <v>0.9063099800338976</v>
       </c>
       <c r="K3">
-        <v>0.9109680635722456</v>
+        <v>0.9109680635722468</v>
       </c>
       <c r="L3">
-        <v>0.9163525341347548</v>
+        <v>0.916352534134756</v>
       </c>
       <c r="M3">
-        <v>0.8272175229392402</v>
+        <v>0.827217522939241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8997717862563882</v>
+        <v>0.8997717862563889</v>
       </c>
       <c r="D4">
-        <v>0.9147737224086719</v>
+        <v>0.9147737224086723</v>
       </c>
       <c r="E4">
-        <v>0.9193714688534926</v>
+        <v>0.9193714688534933</v>
       </c>
       <c r="F4">
-        <v>0.8464050406941972</v>
+        <v>0.846405040694197</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,13 +515,13 @@
         <v>1.023261479697714</v>
       </c>
       <c r="J4">
-        <v>0.9221402137881195</v>
+        <v>0.9221402137881201</v>
       </c>
       <c r="K4">
-        <v>0.9260226079298151</v>
+        <v>0.9260226079298154</v>
       </c>
       <c r="L4">
-        <v>0.9305513720991079</v>
+        <v>0.9305513720991085</v>
       </c>
       <c r="M4">
         <v>0.858794910417684</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9063330590111457</v>
+        <v>0.9063330590111454</v>
       </c>
       <c r="D5">
-        <v>0.9206434852404451</v>
+        <v>0.9206434852404448</v>
       </c>
       <c r="E5">
-        <v>0.9249225038387375</v>
+        <v>0.9249225038387374</v>
       </c>
       <c r="F5">
-        <v>0.8581693546319021</v>
+        <v>0.858169354631903</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.025275699726952</v>
       </c>
       <c r="J5">
-        <v>0.9279480468268415</v>
+        <v>0.9279480468268411</v>
       </c>
       <c r="K5">
-        <v>0.9315528649112701</v>
+        <v>0.9315528649112699</v>
       </c>
       <c r="L5">
-        <v>0.9357703117652351</v>
+        <v>0.935770311765235</v>
       </c>
       <c r="M5">
-        <v>0.8700681181892138</v>
+        <v>0.8700681181892145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9073936243744861</v>
+        <v>0.9073936243744841</v>
       </c>
       <c r="D6">
-        <v>0.9215921017122279</v>
+        <v>0.9215921017122262</v>
       </c>
       <c r="E6">
-        <v>0.9258198544804144</v>
+        <v>0.9258198544804128</v>
       </c>
       <c r="F6">
-        <v>0.8600525728647229</v>
+        <v>0.8600525728647211</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.02559799744327</v>
       </c>
       <c r="J6">
-        <v>0.9288852305318424</v>
+        <v>0.9288852305318404</v>
       </c>
       <c r="K6">
-        <v>0.9324456039431965</v>
+        <v>0.9324456039431944</v>
       </c>
       <c r="L6">
-        <v>0.9366129441583421</v>
+        <v>0.9366129441583404</v>
       </c>
       <c r="M6">
-        <v>0.8718723027383271</v>
+        <v>0.8718723027383253</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8998624276329059</v>
+        <v>0.8998624276329071</v>
       </c>
       <c r="D7">
-        <v>0.9148548241734523</v>
+        <v>0.9148548241734535</v>
       </c>
       <c r="E7">
-        <v>0.9194481489859395</v>
+        <v>0.9194481489859406</v>
       </c>
       <c r="F7">
-        <v>0.8465689160880243</v>
+        <v>0.8465689160880254</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.02328954264076</v>
       </c>
       <c r="J7">
-        <v>0.9222205637338969</v>
+        <v>0.9222205637338982</v>
       </c>
       <c r="K7">
-        <v>0.9260990923572694</v>
+        <v>0.9260990923572704</v>
       </c>
       <c r="L7">
-        <v>0.9306235400689951</v>
+        <v>0.9306235400689965</v>
       </c>
       <c r="M7">
-        <v>0.8589519734338552</v>
+        <v>0.8589519734338564</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D8">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E8">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F8">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J8">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K8">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L8">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M8">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D9">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E9">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F9">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J9">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K9">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L9">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M9">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D10">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E10">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F10">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J10">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K10">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L10">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M10">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D11">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E11">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F11">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J11">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K11">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L11">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M11">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D12">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E12">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F12">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J12">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K12">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L12">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M12">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D13">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E13">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F13">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J13">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K13">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L13">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M13">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D14">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E14">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F14">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J14">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K14">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L14">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M14">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D15">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E15">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F15">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J15">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K15">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L15">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M15">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D16">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E16">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F16">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J16">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K16">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L16">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M16">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D17">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E17">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F17">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J17">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K17">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L17">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M17">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D18">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E18">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F18">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J18">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K18">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L18">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M18">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D19">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E19">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F19">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J19">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K19">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L19">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M19">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D20">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E20">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F20">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J20">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K20">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L20">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M20">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D21">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E21">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F21">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J21">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K21">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L21">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M21">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D22">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E22">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F22">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J22">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K22">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L22">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M22">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D23">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E23">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F23">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J23">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K23">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L23">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M23">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D24">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E24">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F24">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J24">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K24">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L24">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M24">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8581402614493984</v>
+        <v>0.8581402614494031</v>
       </c>
       <c r="D25">
-        <v>0.8774652461984972</v>
+        <v>0.8774652461985015</v>
       </c>
       <c r="E25">
-        <v>0.8841528835821892</v>
+        <v>0.8841528835821931</v>
       </c>
       <c r="F25">
-        <v>0.7665112198676741</v>
+        <v>0.7665112198676806</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.009656921746856</v>
+        <v>1.009656921746857</v>
       </c>
       <c r="J25">
-        <v>0.884850889548026</v>
+        <v>0.8848508895480306</v>
       </c>
       <c r="K25">
-        <v>0.8906078189361124</v>
+        <v>0.8906078189361168</v>
       </c>
       <c r="L25">
-        <v>0.8971700405846843</v>
+        <v>0.8971700405846883</v>
       </c>
       <c r="M25">
-        <v>0.7821709690996983</v>
+        <v>0.7821709690997046</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8402536315826392</v>
+        <v>0.8404861720500634</v>
       </c>
       <c r="D2">
-        <v>0.8613792986250239</v>
+        <v>0.8615915908805527</v>
       </c>
       <c r="E2">
-        <v>0.8690059049332561</v>
+        <v>0.8692051106915429</v>
       </c>
       <c r="F2">
-        <v>0.7286588935062549</v>
+        <v>0.728979659008289</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.003332356780178</v>
+        <v>1.003376849205195</v>
       </c>
       <c r="J2">
-        <v>0.8685470859892359</v>
+        <v>0.8687682682188252</v>
       </c>
       <c r="K2">
-        <v>0.8751797186907884</v>
+        <v>0.8753876658899153</v>
       </c>
       <c r="L2">
-        <v>0.8826519803943632</v>
+        <v>0.8828472024351323</v>
       </c>
       <c r="M2">
-        <v>0.7458678777326142</v>
+        <v>0.7461783230430692</v>
+      </c>
+      <c r="N2">
+        <v>0.9141747081670734</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8819887359292229</v>
+        <v>0.8821108848885746</v>
       </c>
       <c r="D3">
-        <v>0.8988535084095541</v>
+        <v>0.8989657121453489</v>
       </c>
       <c r="E3">
-        <v>0.9043291038464063</v>
+        <v>0.9044344281713901</v>
       </c>
       <c r="F3">
-        <v>0.813471044511633</v>
+        <v>0.8135915337193368</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.017627276338883</v>
+        <v>1.017642010401666</v>
       </c>
       <c r="J3">
-        <v>0.9063099800338976</v>
+        <v>0.9064274123154258</v>
       </c>
       <c r="K3">
-        <v>0.9109680635722468</v>
+        <v>0.9110783856522809</v>
       </c>
       <c r="L3">
-        <v>0.916352534134756</v>
+        <v>0.9164561195697917</v>
       </c>
       <c r="M3">
-        <v>0.827217522939241</v>
+        <v>0.8273353885075814</v>
+      </c>
+      <c r="N3">
+        <v>0.9395490737838041</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8997717862563889</v>
+        <v>0.8998688046038477</v>
       </c>
       <c r="D4">
-        <v>0.9147737224086723</v>
+        <v>0.914863065869382</v>
       </c>
       <c r="E4">
-        <v>0.9193714688534933</v>
+        <v>0.9194553415117808</v>
       </c>
       <c r="F4">
-        <v>0.846405040694197</v>
+        <v>0.8464931198204638</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023261479697714</v>
+        <v>1.02327182070098</v>
       </c>
       <c r="J4">
-        <v>0.9221402137881201</v>
+        <v>0.9222339155028861</v>
       </c>
       <c r="K4">
-        <v>0.9260226079298154</v>
+        <v>0.926110602513264</v>
       </c>
       <c r="L4">
-        <v>0.9305513720991085</v>
+        <v>0.9306339945230411</v>
       </c>
       <c r="M4">
-        <v>0.858794910417684</v>
+        <v>0.8588813651032637</v>
+      </c>
+      <c r="N4">
+        <v>0.9502053001098154</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9063330590111454</v>
+        <v>0.9064219602001201</v>
       </c>
       <c r="D5">
-        <v>0.9206434852404448</v>
+        <v>0.9207254280553343</v>
       </c>
       <c r="E5">
-        <v>0.9249225038387374</v>
+        <v>0.9249994312684606</v>
       </c>
       <c r="F5">
-        <v>0.858169354631903</v>
+        <v>0.8582480200304661</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025275699726952</v>
+        <v>1.025284811260065</v>
       </c>
       <c r="J5">
-        <v>0.9279480468268411</v>
+        <v>0.9280340534471867</v>
       </c>
       <c r="K5">
-        <v>0.9315528649112699</v>
+        <v>0.9316336218208047</v>
       </c>
       <c r="L5">
-        <v>0.935770311765235</v>
+        <v>0.9358461388673219</v>
       </c>
       <c r="M5">
-        <v>0.8700681181892145</v>
+        <v>0.8701454206193523</v>
+      </c>
+      <c r="N5">
+        <v>0.9541160530805954</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9073936243744841</v>
+        <v>0.9074812587428178</v>
       </c>
       <c r="D6">
-        <v>0.9215921017122262</v>
+        <v>0.9216728886464931</v>
       </c>
       <c r="E6">
-        <v>0.9258198544804128</v>
+        <v>0.9258956971416984</v>
       </c>
       <c r="F6">
-        <v>0.8600525728647211</v>
+        <v>0.8601298125800684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02559799744327</v>
+        <v>1.025606924897011</v>
       </c>
       <c r="J6">
-        <v>0.9288852305318404</v>
+        <v>0.9289700345596621</v>
       </c>
       <c r="K6">
-        <v>0.9324456039431944</v>
+        <v>0.9325252298932928</v>
       </c>
       <c r="L6">
-        <v>0.9366129441583404</v>
+        <v>0.9366877094356929</v>
       </c>
       <c r="M6">
-        <v>0.8718723027383253</v>
+        <v>0.8719482177450724</v>
+      </c>
+      <c r="N6">
+        <v>0.9547471573771823</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8998624276329071</v>
+        <v>0.8999593303330478</v>
       </c>
       <c r="D7">
-        <v>0.9148548241734535</v>
+        <v>0.9149440622610436</v>
       </c>
       <c r="E7">
-        <v>0.9194481489859406</v>
+        <v>0.9195319227571067</v>
       </c>
       <c r="F7">
-        <v>0.8465689160880254</v>
+        <v>0.8466568576389781</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02328954264076</v>
+        <v>1.023299865507384</v>
       </c>
       <c r="J7">
-        <v>0.9222205637338982</v>
+        <v>0.9223141559357672</v>
       </c>
       <c r="K7">
-        <v>0.9260990923572704</v>
+        <v>0.9261869839270295</v>
       </c>
       <c r="L7">
-        <v>0.9306235400689965</v>
+        <v>0.9307060657744914</v>
       </c>
       <c r="M7">
-        <v>0.8589519734338564</v>
+        <v>0.8590382944712744</v>
+      </c>
+      <c r="N7">
+        <v>0.9502594009351917</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D8">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E8">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F8">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J8">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K8">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L8">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M8">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N8">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D9">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E9">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F9">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J9">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K9">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L9">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M9">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N9">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D10">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E10">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F10">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J10">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K10">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L10">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M10">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N10">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D11">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E11">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F11">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J11">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K11">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L11">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M11">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N11">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D12">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E12">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F12">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J12">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K12">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L12">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M12">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N12">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D13">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E13">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F13">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J13">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K13">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L13">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M13">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N13">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D14">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E14">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F14">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J14">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K14">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L14">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M14">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N14">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D15">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E15">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F15">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J15">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K15">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L15">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M15">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N15">
+        <v>0.9251167492298082</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D16">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E16">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F16">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J16">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K16">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L16">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M16">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N16">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D17">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E17">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F17">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J17">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K17">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L17">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M17">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N17">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D18">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E18">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F18">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J18">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K18">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L18">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M18">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N18">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D19">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E19">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F19">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J19">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K19">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L19">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M19">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N19">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D20">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E20">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F20">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J20">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K20">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L20">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M20">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N20">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D21">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E21">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F21">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J21">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K21">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L21">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M21">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N21">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D22">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E22">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F22">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J22">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K22">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L22">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M22">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N22">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D23">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E23">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F23">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J23">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K23">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L23">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M23">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N23">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D24">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E24">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F24">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J24">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K24">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L24">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M24">
-        <v>0.7821709690997046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N24">
+        <v>0.9251167492298082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8581402614494031</v>
+        <v>0.8583094273832399</v>
       </c>
       <c r="D25">
-        <v>0.8774652461985015</v>
+        <v>0.8776200981600076</v>
       </c>
       <c r="E25">
-        <v>0.8841528835821931</v>
+        <v>0.8842982183843123</v>
       </c>
       <c r="F25">
-        <v>0.7665112198676806</v>
+        <v>0.7667064333244713</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.009656921746857</v>
+        <v>1.009682414569633</v>
       </c>
       <c r="J25">
-        <v>0.8848508895480306</v>
+        <v>0.8850125228177024</v>
       </c>
       <c r="K25">
-        <v>0.8906078189361168</v>
+        <v>0.8907597386448641</v>
       </c>
       <c r="L25">
-        <v>0.8971700405846883</v>
+        <v>0.8973126773355059</v>
       </c>
       <c r="M25">
-        <v>0.7821709690997046</v>
+        <v>0.782360881115823</v>
+      </c>
+      <c r="N25">
+        <v>0.9251167492298082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8404861720500634</v>
+        <v>0.9278848624000167</v>
       </c>
       <c r="D2">
-        <v>0.8615915908805527</v>
+        <v>0.9371122455875424</v>
       </c>
       <c r="E2">
-        <v>0.8692051106915429</v>
+        <v>0.9483271080265956</v>
       </c>
       <c r="F2">
-        <v>0.728979659008289</v>
+        <v>0.9475580830525568</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.003376849205195</v>
+        <v>1.032673483713842</v>
       </c>
       <c r="J2">
-        <v>0.8687682682188252</v>
+        <v>0.9524594232391677</v>
       </c>
       <c r="K2">
-        <v>0.8753876658899153</v>
+        <v>0.949523271325872</v>
       </c>
       <c r="L2">
-        <v>0.8828472024351323</v>
+        <v>0.9605565679902528</v>
       </c>
       <c r="M2">
-        <v>0.7461783230430692</v>
+        <v>0.9597998173785534</v>
       </c>
       <c r="N2">
-        <v>0.9141747081670734</v>
+        <v>0.9538120248687898</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8821108848885746</v>
+        <v>0.94789591625977</v>
       </c>
       <c r="D3">
-        <v>0.8989657121453489</v>
+        <v>0.956193602281623</v>
       </c>
       <c r="E3">
-        <v>0.9044344281713901</v>
+        <v>0.9659661984633724</v>
       </c>
       <c r="F3">
-        <v>0.8135915337193368</v>
+        <v>0.9666020718655061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.017642010401666</v>
+        <v>1.036631231959725</v>
       </c>
       <c r="J3">
-        <v>0.9064274123154258</v>
+        <v>0.969915319142196</v>
       </c>
       <c r="K3">
-        <v>0.9110783856522809</v>
+        <v>0.9674194743432809</v>
       </c>
       <c r="L3">
-        <v>0.9164561195697917</v>
+        <v>0.9770539007508022</v>
       </c>
       <c r="M3">
-        <v>0.8273353885075814</v>
+        <v>0.9776809060443375</v>
       </c>
       <c r="N3">
-        <v>0.9395490737838041</v>
+        <v>0.9712927101462201</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8998688046038477</v>
+        <v>0.9597639927147495</v>
       </c>
       <c r="D4">
-        <v>0.914863065869382</v>
+        <v>0.9675196138330503</v>
       </c>
       <c r="E4">
-        <v>0.9194553415117808</v>
+        <v>0.9764457560449418</v>
       </c>
       <c r="F4">
-        <v>0.8464931198204638</v>
+        <v>0.9779213077534517</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02327182070098</v>
+        <v>1.038942302661888</v>
       </c>
       <c r="J4">
-        <v>0.9222339155028861</v>
+        <v>0.9802561119710249</v>
       </c>
       <c r="K4">
-        <v>0.926110602513264</v>
+        <v>0.9780265274022119</v>
       </c>
       <c r="L4">
-        <v>0.9306339945230411</v>
+        <v>0.9868370261909587</v>
       </c>
       <c r="M4">
-        <v>0.8588813651032637</v>
+        <v>0.9882937153316862</v>
       </c>
       <c r="N4">
-        <v>0.9502053001098154</v>
+        <v>0.9816481880869712</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9064219602001201</v>
+        <v>0.9645342457640593</v>
       </c>
       <c r="D5">
-        <v>0.9207254280553343</v>
+        <v>0.9720737863245443</v>
       </c>
       <c r="E5">
-        <v>0.9249994312684606</v>
+        <v>0.9806616648472317</v>
       </c>
       <c r="F5">
-        <v>0.8582480200304661</v>
+        <v>0.9824762895459171</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025284811260065</v>
+        <v>1.039861652458894</v>
       </c>
       <c r="J5">
-        <v>0.9280340534471867</v>
+        <v>0.984409330288975</v>
       </c>
       <c r="K5">
-        <v>0.9316336218208047</v>
+        <v>0.9822879652864988</v>
       </c>
       <c r="L5">
-        <v>0.9358461388673219</v>
+        <v>0.9907686092146941</v>
       </c>
       <c r="M5">
-        <v>0.8701454206193523</v>
+        <v>0.9925608736889544</v>
       </c>
       <c r="N5">
-        <v>0.9541160530805954</v>
+        <v>0.9858073044513137</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9074812587428178</v>
+        <v>0.9653233002782287</v>
       </c>
       <c r="D6">
-        <v>0.9216728886464931</v>
+        <v>0.9728271938014226</v>
       </c>
       <c r="E6">
-        <v>0.9258956971416984</v>
+        <v>0.9813592307212571</v>
       </c>
       <c r="F6">
-        <v>0.8601298125800684</v>
+        <v>0.983230035190323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025606924897011</v>
+        <v>1.040013137378564</v>
       </c>
       <c r="J6">
-        <v>0.9289700345596621</v>
+        <v>0.9850961265395529</v>
       </c>
       <c r="K6">
-        <v>0.9325252298932928</v>
+        <v>0.9829927321961149</v>
       </c>
       <c r="L6">
-        <v>0.9366877094356929</v>
+        <v>0.9914188904748876</v>
       </c>
       <c r="M6">
-        <v>0.8719482177450724</v>
+        <v>0.9932667845429036</v>
       </c>
       <c r="N6">
-        <v>0.9547471573771823</v>
+        <v>0.9864950760313439</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8999593303330478</v>
+        <v>0.9598285495003539</v>
       </c>
       <c r="D7">
-        <v>0.9149440622610436</v>
+        <v>0.9675812396761616</v>
       </c>
       <c r="E7">
-        <v>0.9195319227571067</v>
+        <v>0.9765027964687679</v>
       </c>
       <c r="F7">
-        <v>0.8466568576389781</v>
+        <v>0.9779829306064111</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023299865507384</v>
+        <v>1.038954783690064</v>
       </c>
       <c r="J7">
-        <v>0.9223141559357672</v>
+        <v>0.9803123312842408</v>
       </c>
       <c r="K7">
-        <v>0.9261869839270295</v>
+        <v>0.9780842065138412</v>
       </c>
       <c r="L7">
-        <v>0.9307060657744914</v>
+        <v>0.9868902361181898</v>
       </c>
       <c r="M7">
-        <v>0.8590382944712744</v>
+        <v>0.9883514583813805</v>
       </c>
       <c r="N7">
-        <v>0.9502594009351917</v>
+        <v>0.9817044872380605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8583094273832399</v>
+        <v>0.934899088074332</v>
       </c>
       <c r="D8">
-        <v>0.8776200981600076</v>
+        <v>0.9437982283943505</v>
       </c>
       <c r="E8">
-        <v>0.8842982183843123</v>
+        <v>0.9545054620030916</v>
       </c>
       <c r="F8">
-        <v>0.7667064333244713</v>
+        <v>0.9542274762614096</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.009682414569633</v>
+        <v>1.034068043902969</v>
       </c>
       <c r="J8">
-        <v>0.8850125228177024</v>
+        <v>0.9585803970793593</v>
       </c>
       <c r="K8">
-        <v>0.8907597386448641</v>
+        <v>0.9557974343254327</v>
       </c>
       <c r="L8">
-        <v>0.8973126773355059</v>
+        <v>0.9663391095738489</v>
       </c>
       <c r="M8">
-        <v>0.782360881115823</v>
+        <v>0.9660653622217314</v>
       </c>
       <c r="N8">
-        <v>0.9251167492298082</v>
+        <v>0.9599416911939204</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8583094273832399</v>
+        <v>0.8799725692272989</v>
       </c>
       <c r="D9">
-        <v>0.8776200981600076</v>
+        <v>0.8915204764424184</v>
       </c>
       <c r="E9">
-        <v>0.8842982183843123</v>
+        <v>0.9062598953591084</v>
       </c>
       <c r="F9">
-        <v>0.7667064333244713</v>
+        <v>0.9021669012246492</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.009682414569633</v>
+        <v>1.023029212615754</v>
       </c>
       <c r="J9">
-        <v>0.8850125228177024</v>
+        <v>0.9106136195317253</v>
       </c>
       <c r="K9">
-        <v>0.8907597386448641</v>
+        <v>0.9066584551732657</v>
       </c>
       <c r="L9">
-        <v>0.8973126773355059</v>
+        <v>0.9210820073420574</v>
       </c>
       <c r="M9">
-        <v>0.782360881115823</v>
+        <v>0.9170753556883497</v>
       </c>
       <c r="N9">
-        <v>0.9251167492298082</v>
+        <v>0.9119067953203023</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8583094273832399</v>
+        <v>0.8286727767354874</v>
       </c>
       <c r="D10">
-        <v>0.8776200981600076</v>
+        <v>0.8428904408901926</v>
       </c>
       <c r="E10">
-        <v>0.8842982183843123</v>
+        <v>0.8615090610449079</v>
       </c>
       <c r="F10">
-        <v>0.7667064333244713</v>
+        <v>0.8538902510575295</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009682414569633</v>
+        <v>1.012694496393449</v>
       </c>
       <c r="J10">
-        <v>0.8850125228177024</v>
+        <v>0.8658302058097537</v>
       </c>
       <c r="K10">
-        <v>0.8907597386448641</v>
+        <v>0.8608235525498052</v>
       </c>
       <c r="L10">
-        <v>0.8973126773355059</v>
+        <v>0.8789273650394852</v>
       </c>
       <c r="M10">
-        <v>0.782360881115823</v>
+        <v>0.8715155178378998</v>
       </c>
       <c r="N10">
-        <v>0.9251167492298082</v>
+        <v>0.867059784014116</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8583094273832399</v>
+        <v>0.7983451307492073</v>
       </c>
       <c r="D11">
-        <v>0.8776200981600076</v>
+        <v>0.8142545016386644</v>
       </c>
       <c r="E11">
-        <v>0.8842982183843123</v>
+        <v>0.8352171940844697</v>
       </c>
       <c r="F11">
-        <v>0.7667064333244713</v>
+        <v>0.8255176684376023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009682414569633</v>
+        <v>1.006685213968569</v>
       </c>
       <c r="J11">
-        <v>0.8850125228177024</v>
+        <v>0.8394142575697173</v>
       </c>
       <c r="K11">
-        <v>0.8907597386448641</v>
+        <v>0.8337990124758844</v>
       </c>
       <c r="L11">
-        <v>0.8973126773355059</v>
+        <v>0.8540976636575751</v>
       </c>
       <c r="M11">
-        <v>0.782360881115823</v>
+        <v>0.8446995937590601</v>
       </c>
       <c r="N11">
-        <v>0.9251167492298082</v>
+        <v>0.8406063220976272</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8583094273832399</v>
+        <v>0.7846099347408702</v>
       </c>
       <c r="D12">
-        <v>0.8776200981600076</v>
+        <v>0.8013182766838844</v>
       </c>
       <c r="E12">
-        <v>0.8842982183843123</v>
+        <v>0.8233552455904901</v>
       </c>
       <c r="F12">
-        <v>0.7667064333244713</v>
+        <v>0.8127123376374382</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009682414569633</v>
+        <v>1.004003775413705</v>
       </c>
       <c r="J12">
-        <v>0.8850125228177024</v>
+        <v>0.8274740043090305</v>
       </c>
       <c r="K12">
-        <v>0.8907597386448641</v>
+        <v>0.8215854176068952</v>
       </c>
       <c r="L12">
-        <v>0.8973126773355059</v>
+        <v>0.8428820055625642</v>
       </c>
       <c r="M12">
-        <v>0.782360881115823</v>
+        <v>0.8325896913393066</v>
       </c>
       <c r="N12">
-        <v>0.9251167492298082</v>
+        <v>0.8286491123077444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8583094273832399</v>
+        <v>0.7877141852446514</v>
       </c>
       <c r="D13">
-        <v>0.8776200981600076</v>
+        <v>0.8042400286660034</v>
       </c>
       <c r="E13">
-        <v>0.8842982183843123</v>
+        <v>0.8260335027156526</v>
       </c>
       <c r="F13">
-        <v>0.7667064333244713</v>
+        <v>0.8156039051128431</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.009682414569633</v>
+        <v>1.004607279642296</v>
       </c>
       <c r="J13">
-        <v>0.8850125228177024</v>
+        <v>0.8301710955627822</v>
       </c>
       <c r="K13">
-        <v>0.8907597386448641</v>
+        <v>0.8243441801193496</v>
       </c>
       <c r="L13">
-        <v>0.8973126773355059</v>
+        <v>0.8454150304394495</v>
       </c>
       <c r="M13">
-        <v>0.782360881115823</v>
+        <v>0.8353245574126699</v>
       </c>
       <c r="N13">
-        <v>0.9251167492298082</v>
+        <v>0.8313500337404368</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8583094273832399</v>
+        <v>0.7972752341658756</v>
       </c>
       <c r="D14">
-        <v>0.8776200981600076</v>
+        <v>0.8132460636499662</v>
       </c>
       <c r="E14">
-        <v>0.8842982183843123</v>
+        <v>0.834292149715648</v>
       </c>
       <c r="F14">
-        <v>0.7667064333244713</v>
+        <v>0.8245191765248578</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009682414569633</v>
+        <v>1.006475340913824</v>
       </c>
       <c r="J14">
-        <v>0.8850125228177024</v>
+        <v>0.8384835866520889</v>
       </c>
       <c r="K14">
-        <v>0.8907597386448641</v>
+        <v>0.8328470045395243</v>
       </c>
       <c r="L14">
-        <v>0.8973126773355059</v>
+        <v>0.8532233071610256</v>
       </c>
       <c r="M14">
-        <v>0.782360881115823</v>
+        <v>0.8437554697610652</v>
       </c>
       <c r="N14">
-        <v>0.9251167492298082</v>
+        <v>0.8396743295205464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8583094273832399</v>
+        <v>0.8027677405643221</v>
       </c>
       <c r="D15">
-        <v>0.8776200981600076</v>
+        <v>0.8184244083095406</v>
       </c>
       <c r="E15">
-        <v>0.8842982183843123</v>
+        <v>0.8390428884121593</v>
       </c>
       <c r="F15">
-        <v>0.7667064333244713</v>
+        <v>0.8296469192511309</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.009682414569633</v>
+        <v>1.007554454571763</v>
       </c>
       <c r="J15">
-        <v>0.8850125228177024</v>
+        <v>0.8432623406172949</v>
       </c>
       <c r="K15">
-        <v>0.8907597386448641</v>
+        <v>0.8377353829699327</v>
       </c>
       <c r="L15">
-        <v>0.8973126773355059</v>
+        <v>0.8577132008322016</v>
       </c>
       <c r="M15">
-        <v>0.782360881115823</v>
+        <v>0.8486037338668387</v>
       </c>
       <c r="N15">
-        <v>0.9251167492298082</v>
+        <v>0.8444598698645138</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8583094273832399</v>
+        <v>0.8304433496195047</v>
       </c>
       <c r="D16">
-        <v>0.8776200981600076</v>
+        <v>0.8445650840461489</v>
       </c>
       <c r="E16">
-        <v>0.8842982183843123</v>
+        <v>0.8630480264231444</v>
       </c>
       <c r="F16">
-        <v>0.7667064333244713</v>
+        <v>0.8555506784331041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009682414569633</v>
+        <v>1.013048430633196</v>
       </c>
       <c r="J16">
-        <v>0.8850125228177024</v>
+        <v>0.8673741954503182</v>
       </c>
       <c r="K16">
-        <v>0.8907597386448641</v>
+        <v>0.8624033253431985</v>
       </c>
       <c r="L16">
-        <v>0.8973126773355059</v>
+        <v>0.8803793994229144</v>
       </c>
       <c r="M16">
-        <v>0.782360881115823</v>
+        <v>0.8730840607619789</v>
       </c>
       <c r="N16">
-        <v>0.9251167492298082</v>
+        <v>0.8686059662970689</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8583094273832399</v>
+        <v>0.8451597998726031</v>
       </c>
       <c r="D17">
-        <v>0.8776200981600076</v>
+        <v>0.8584953182966404</v>
       </c>
       <c r="E17">
-        <v>0.8842982183843123</v>
+        <v>0.8758555091826018</v>
       </c>
       <c r="F17">
-        <v>0.7667064333244713</v>
+        <v>0.8693680423630495</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009682414569633</v>
+        <v>1.016000388833597</v>
       </c>
       <c r="J17">
-        <v>0.8850125228177024</v>
+        <v>0.8802132605340633</v>
       </c>
       <c r="K17">
-        <v>0.8907597386448641</v>
+        <v>0.8755410660808276</v>
       </c>
       <c r="L17">
-        <v>0.8973126773355059</v>
+        <v>0.8924572756359677</v>
       </c>
       <c r="M17">
-        <v>0.782360881115823</v>
+        <v>0.8861329202676944</v>
       </c>
       <c r="N17">
-        <v>0.9251167492298082</v>
+        <v>0.8814632643258939</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8583094273832399</v>
+        <v>0.8530689586130942</v>
       </c>
       <c r="D18">
-        <v>0.8776200981600076</v>
+        <v>0.8659897909328679</v>
       </c>
       <c r="E18">
-        <v>0.8842982183843123</v>
+        <v>0.8827502236039623</v>
       </c>
       <c r="F18">
-        <v>0.7667064333244713</v>
+        <v>0.8768058990206036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.009682414569633</v>
+        <v>1.017593116939342</v>
       </c>
       <c r="J18">
-        <v>0.8850125228177024</v>
+        <v>0.8871171429543057</v>
       </c>
       <c r="K18">
-        <v>0.8907597386448641</v>
+        <v>0.8826064687784996</v>
       </c>
       <c r="L18">
-        <v>0.8973126773355059</v>
+        <v>0.8989545008703672</v>
       </c>
       <c r="M18">
-        <v>0.782360881115823</v>
+        <v>0.8931540128993544</v>
       </c>
       <c r="N18">
-        <v>0.9251167492298082</v>
+        <v>0.8883769510510596</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8583094273832399</v>
+        <v>0.8556684953284899</v>
       </c>
       <c r="D19">
-        <v>0.8776200981600076</v>
+        <v>0.8684541772521414</v>
       </c>
       <c r="E19">
-        <v>0.8842982183843123</v>
+        <v>0.8850180413674772</v>
       </c>
       <c r="F19">
-        <v>0.7667064333244713</v>
+        <v>0.8792523188989161</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.009682414569633</v>
+        <v>1.018117351982991</v>
       </c>
       <c r="J19">
-        <v>0.8850125228177024</v>
+        <v>0.8893867326614142</v>
       </c>
       <c r="K19">
-        <v>0.8907597386448641</v>
+        <v>0.8849293109643472</v>
       </c>
       <c r="L19">
-        <v>0.8973126773355059</v>
+        <v>0.9010908267349749</v>
       </c>
       <c r="M19">
-        <v>0.782360881115823</v>
+        <v>0.8954628475157299</v>
       </c>
       <c r="N19">
-        <v>0.9251167492298082</v>
+        <v>0.8906497638358777</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8583094273832399</v>
+        <v>0.8436551240974843</v>
       </c>
       <c r="D20">
-        <v>0.8776200981600076</v>
+        <v>0.8570701415425872</v>
       </c>
       <c r="E20">
-        <v>0.8842982183843123</v>
+        <v>0.8745447218887823</v>
       </c>
       <c r="F20">
-        <v>0.7667064333244713</v>
+        <v>0.8679539630921974</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009682414569633</v>
+        <v>1.015697819405485</v>
       </c>
       <c r="J20">
-        <v>0.8850125228177024</v>
+        <v>0.8789000980351327</v>
       </c>
       <c r="K20">
-        <v>0.8907597386448641</v>
+        <v>0.8741972576693207</v>
       </c>
       <c r="L20">
-        <v>0.8973126773355059</v>
+        <v>0.8912216761269229</v>
       </c>
       <c r="M20">
-        <v>0.782360881115823</v>
+        <v>0.8847978228059477</v>
       </c>
       <c r="N20">
-        <v>0.9251167492298082</v>
+        <v>0.8801482369855929</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8583094273832399</v>
+        <v>0.794548836440587</v>
       </c>
       <c r="D21">
-        <v>0.8776200981600076</v>
+        <v>0.810676862335149</v>
       </c>
       <c r="E21">
-        <v>0.8842982183843123</v>
+        <v>0.8319356768804502</v>
       </c>
       <c r="F21">
-        <v>0.7667064333244713</v>
+        <v>0.8219755137805981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009682414569633</v>
+        <v>1.005941267211923</v>
       </c>
       <c r="J21">
-        <v>0.8850125228177024</v>
+        <v>0.8361124095230051</v>
       </c>
       <c r="K21">
-        <v>0.8907597386448641</v>
+        <v>0.8304214905961139</v>
       </c>
       <c r="L21">
-        <v>0.8973126773355059</v>
+        <v>0.8509957350713674</v>
       </c>
       <c r="M21">
-        <v>0.782360881115823</v>
+        <v>0.8413501968448471</v>
       </c>
       <c r="N21">
-        <v>0.9251167492298082</v>
+        <v>0.8372997850479614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8583094273832399</v>
+        <v>0.7452706799171616</v>
       </c>
       <c r="D22">
-        <v>0.8776200981600076</v>
+        <v>0.764399447850053</v>
       </c>
       <c r="E22">
-        <v>0.8842982183843123</v>
+        <v>0.7895585463452081</v>
       </c>
       <c r="F22">
-        <v>0.7667064333244713</v>
+        <v>0.7762047134423002</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.009682414569633</v>
+        <v>0.9965036000948692</v>
       </c>
       <c r="J22">
-        <v>0.8850125228177024</v>
+        <v>0.7933849870882983</v>
       </c>
       <c r="K22">
-        <v>0.8907597386448641</v>
+        <v>0.7867190891266743</v>
       </c>
       <c r="L22">
-        <v>0.8973126773355059</v>
+        <v>0.810885350030037</v>
       </c>
       <c r="M22">
-        <v>0.782360881115823</v>
+        <v>0.7980471459576823</v>
       </c>
       <c r="N22">
-        <v>0.9251167492298082</v>
+        <v>0.7945116847724935</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8583094273832399</v>
+        <v>0.774707846158761</v>
       </c>
       <c r="D23">
-        <v>0.8776200981600076</v>
+        <v>0.7920061799745578</v>
       </c>
       <c r="E23">
-        <v>0.8842982183843123</v>
+        <v>0.8148226247757601</v>
       </c>
       <c r="F23">
-        <v>0.7667064333244713</v>
+        <v>0.8034988081319785</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.009682414569633</v>
+        <v>1.00208923583121</v>
       </c>
       <c r="J23">
-        <v>0.8850125228177024</v>
+        <v>0.8188770097150786</v>
       </c>
       <c r="K23">
-        <v>0.8907597386448641</v>
+        <v>0.8127920743274369</v>
       </c>
       <c r="L23">
-        <v>0.8973126773355059</v>
+        <v>0.8348094647997844</v>
       </c>
       <c r="M23">
-        <v>0.782360881115823</v>
+        <v>0.8238742886248492</v>
       </c>
       <c r="N23">
-        <v>0.9251167492298082</v>
+        <v>0.8200399089953798</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8583094273832399</v>
+        <v>0.8443370467755479</v>
       </c>
       <c r="D24">
-        <v>0.8776200981600076</v>
+        <v>0.8577160106486948</v>
       </c>
       <c r="E24">
-        <v>0.8842982183843123</v>
+        <v>0.8751387379806436</v>
       </c>
       <c r="F24">
-        <v>0.7667064333244713</v>
+        <v>0.8685947900298036</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.009682414569633</v>
+        <v>1.015834925754578</v>
       </c>
       <c r="J24">
-        <v>0.8850125228177024</v>
+        <v>0.8794952152156242</v>
       </c>
       <c r="K24">
-        <v>0.8907597386448641</v>
+        <v>0.8748062604707925</v>
       </c>
       <c r="L24">
-        <v>0.8973126773355059</v>
+        <v>0.8917816338670655</v>
       </c>
       <c r="M24">
-        <v>0.782360881115823</v>
+        <v>0.8854028668467527</v>
       </c>
       <c r="N24">
-        <v>0.9251167492298082</v>
+        <v>0.8807441993007417</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8583094273832399</v>
+        <v>0.8959752216524537</v>
       </c>
       <c r="D25">
-        <v>0.8776200981600076</v>
+        <v>0.9067317124186132</v>
       </c>
       <c r="E25">
-        <v>0.8842982183843123</v>
+        <v>0.9202831269064552</v>
       </c>
       <c r="F25">
-        <v>0.7667064333244713</v>
+        <v>0.9172955064370238</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.009682414569633</v>
+        <v>1.026264228655969</v>
       </c>
       <c r="J25">
-        <v>0.8850125228177024</v>
+        <v>0.9245934160119443</v>
       </c>
       <c r="K25">
-        <v>0.8907597386448641</v>
+        <v>0.9209738476363893</v>
       </c>
       <c r="L25">
-        <v>0.8973126773355059</v>
+        <v>0.934259327403512</v>
       </c>
       <c r="M25">
-        <v>0.782360881115823</v>
+        <v>0.9313294513173622</v>
       </c>
       <c r="N25">
-        <v>0.9251167492298082</v>
+        <v>0.9259064447150284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9278848624000167</v>
+        <v>0.969012945950277</v>
       </c>
       <c r="D2">
-        <v>0.9371122455875424</v>
+        <v>0.9831000881573557</v>
       </c>
       <c r="E2">
-        <v>0.9483271080265956</v>
+        <v>0.9792514338428299</v>
       </c>
       <c r="F2">
-        <v>0.9475580830525568</v>
+        <v>0.9839751484322328</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032673483713842</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.9524594232391677</v>
+        <v>0.9921616955248828</v>
       </c>
       <c r="K2">
-        <v>0.949523271325872</v>
+        <v>0.9947999970176579</v>
       </c>
       <c r="L2">
-        <v>0.9605565679902528</v>
+        <v>0.9910076027173143</v>
       </c>
       <c r="M2">
-        <v>0.9597998173785534</v>
+        <v>0.9956623434350891</v>
       </c>
       <c r="N2">
-        <v>0.9538120248687898</v>
+        <v>0.993570678935065</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.94789591625977</v>
+        <v>0.9757950761530164</v>
       </c>
       <c r="D3">
-        <v>0.956193602281623</v>
+        <v>0.9891205879891112</v>
       </c>
       <c r="E3">
-        <v>0.9659661984633724</v>
+        <v>0.9848385047709771</v>
       </c>
       <c r="F3">
-        <v>0.9666020718655061</v>
+        <v>0.9907190830194823</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036631231959725</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.969915319142196</v>
+        <v>0.9969680692811638</v>
       </c>
       <c r="K3">
-        <v>0.9674194743432809</v>
+        <v>0.9998945919524205</v>
       </c>
       <c r="L3">
-        <v>0.9770539007508022</v>
+        <v>0.9956691272365976</v>
       </c>
       <c r="M3">
-        <v>0.9776809060443375</v>
+        <v>1.001472108599884</v>
       </c>
       <c r="N3">
-        <v>0.9712927101462201</v>
+        <v>0.9983838782933792</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9597639927147495</v>
+        <v>0.9800649107142909</v>
       </c>
       <c r="D4">
-        <v>0.9675196138330503</v>
+        <v>0.9929176122713397</v>
       </c>
       <c r="E4">
-        <v>0.9764457560449418</v>
+        <v>0.9883629866978044</v>
       </c>
       <c r="F4">
-        <v>0.9779213077534517</v>
+        <v>0.9949733208921615</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038942302661888</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>0.9802561119710249</v>
+        <v>0.9999926801517814</v>
       </c>
       <c r="K4">
-        <v>0.9780265274022119</v>
+        <v>1.003102273801682</v>
       </c>
       <c r="L4">
-        <v>0.9868370261909587</v>
+        <v>0.9986039193872794</v>
       </c>
       <c r="M4">
-        <v>0.9882937153316862</v>
+        <v>1.00513279450773</v>
       </c>
       <c r="N4">
-        <v>0.9816481880869712</v>
+        <v>1.00141278445836</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9645342457640593</v>
+        <v>0.981833066969849</v>
       </c>
       <c r="D5">
-        <v>0.9720737863245443</v>
+        <v>0.9944914997932573</v>
       </c>
       <c r="E5">
-        <v>0.9806616648472317</v>
+        <v>0.9898240740541546</v>
       </c>
       <c r="F5">
-        <v>0.9824762895459171</v>
+        <v>0.9967369865184531</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039861652458894</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>0.984409330288975</v>
+        <v>1.001244796050867</v>
       </c>
       <c r="K5">
-        <v>0.9822879652864988</v>
+        <v>1.00443058335951</v>
       </c>
       <c r="L5">
-        <v>0.9907686092146941</v>
+        <v>0.9998191578228798</v>
       </c>
       <c r="M5">
-        <v>0.9925608736889544</v>
+        <v>1.00664936008379</v>
       </c>
       <c r="N5">
-        <v>0.9858073044513137</v>
+        <v>1.002666678505643</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9653233002782287</v>
+        <v>0.9821284139505665</v>
       </c>
       <c r="D6">
-        <v>0.9728271938014226</v>
+        <v>0.9947544841186532</v>
       </c>
       <c r="E6">
-        <v>0.9813592307212571</v>
+        <v>0.9900682196553336</v>
       </c>
       <c r="F6">
-        <v>0.983230035190323</v>
+        <v>0.9970316974753431</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040013137378564</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>0.9850961265395529</v>
+        <v>1.001453920704604</v>
       </c>
       <c r="K6">
-        <v>0.9829927321961149</v>
+        <v>1.0046524575656</v>
       </c>
       <c r="L6">
-        <v>0.9914188904748876</v>
+        <v>1.000022140858961</v>
       </c>
       <c r="M6">
-        <v>0.9932667845429036</v>
+        <v>1.006902719196995</v>
       </c>
       <c r="N6">
-        <v>0.9864950760313439</v>
+        <v>1.002876100140375</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9598285495003539</v>
+        <v>0.980088640604267</v>
       </c>
       <c r="D7">
-        <v>0.9675812396761616</v>
+        <v>0.9929387290145583</v>
       </c>
       <c r="E7">
-        <v>0.9765027964687679</v>
+        <v>0.9883825893679977</v>
       </c>
       <c r="F7">
-        <v>0.9779829306064111</v>
+        <v>0.9949969828054339</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038954783690064</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>0.9803123312842408</v>
+        <v>1.000009486038951</v>
       </c>
       <c r="K7">
-        <v>0.9780842065138412</v>
+        <v>1.003120100750497</v>
       </c>
       <c r="L7">
-        <v>0.9868902361181898</v>
+        <v>0.9986202291162771</v>
       </c>
       <c r="M7">
-        <v>0.9883514583813805</v>
+        <v>1.00515314534656</v>
       </c>
       <c r="N7">
-        <v>0.9817044872380605</v>
+        <v>1.001429614211818</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.934899088074332</v>
+        <v>0.9713305236888072</v>
       </c>
       <c r="D8">
-        <v>0.9437982283943505</v>
+        <v>0.9851559416744243</v>
       </c>
       <c r="E8">
-        <v>0.9545054620030916</v>
+        <v>0.9811590948599479</v>
       </c>
       <c r="F8">
-        <v>0.9542274762614096</v>
+        <v>0.986277855867709</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034068043902969</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.9585803970793593</v>
+        <v>0.9938043627868636</v>
       </c>
       <c r="K8">
-        <v>0.9557974343254327</v>
+        <v>0.9965408116412321</v>
       </c>
       <c r="L8">
-        <v>0.9663391095738489</v>
+        <v>0.9926004746620958</v>
       </c>
       <c r="M8">
-        <v>0.9660653622217314</v>
+        <v>0.997646967509366</v>
       </c>
       <c r="N8">
-        <v>0.9599416911939204</v>
+        <v>0.9952156789729745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8799725692272989</v>
+        <v>0.9549134847867682</v>
       </c>
       <c r="D9">
-        <v>0.8915204764424184</v>
+        <v>0.9706253912267069</v>
       </c>
       <c r="E9">
-        <v>0.9062598953591084</v>
+        <v>0.9676805777170462</v>
       </c>
       <c r="F9">
-        <v>0.9021669012246492</v>
+        <v>0.9700052588066246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023029212615754</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9106136195317253</v>
+        <v>0.9821653759073549</v>
       </c>
       <c r="K9">
-        <v>0.9066584551732657</v>
+        <v>0.9842137356028494</v>
       </c>
       <c r="L9">
-        <v>0.9210820073420574</v>
+        <v>0.9813207231038868</v>
       </c>
       <c r="M9">
-        <v>0.9170753556883497</v>
+        <v>0.9836044778011377</v>
       </c>
       <c r="N9">
-        <v>0.9119067953203023</v>
+        <v>0.9835601633970867</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8286727767354874</v>
+        <v>0.9431895025140405</v>
       </c>
       <c r="D10">
-        <v>0.8428904408901926</v>
+        <v>0.9602948937115598</v>
       </c>
       <c r="E10">
-        <v>0.8615090610449079</v>
+        <v>0.958105341755879</v>
       </c>
       <c r="F10">
-        <v>0.8538902510575295</v>
+        <v>0.9584379423287844</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012694496393449</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.8658302058097537</v>
+        <v>0.9738536480301734</v>
       </c>
       <c r="K10">
-        <v>0.8608235525498052</v>
+        <v>0.9754200528108241</v>
       </c>
       <c r="L10">
-        <v>0.8789273650394852</v>
+        <v>0.9732745861655449</v>
       </c>
       <c r="M10">
-        <v>0.8715155178378998</v>
+        <v>0.9736004729423031</v>
       </c>
       <c r="N10">
-        <v>0.867059784014116</v>
+        <v>0.9752366319129507</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7983451307492073</v>
+        <v>0.9378975529467783</v>
       </c>
       <c r="D11">
-        <v>0.8142545016386644</v>
+        <v>0.9556446151501334</v>
       </c>
       <c r="E11">
-        <v>0.8352171940844697</v>
+        <v>0.9537972872271839</v>
       </c>
       <c r="F11">
-        <v>0.8255176684376023</v>
+        <v>0.9532306834470049</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.006685213968569</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.8394142575697173</v>
+        <v>0.9701032542897273</v>
       </c>
       <c r="K11">
-        <v>0.8337990124758844</v>
+        <v>0.9714544585569928</v>
       </c>
       <c r="L11">
-        <v>0.8540976636575751</v>
+        <v>0.9696464861036158</v>
       </c>
       <c r="M11">
-        <v>0.8446995937590601</v>
+        <v>0.9690919937670194</v>
       </c>
       <c r="N11">
-        <v>0.8406063220976272</v>
+        <v>0.9714809121832175</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7846099347408702</v>
+        <v>0.9358965460953658</v>
       </c>
       <c r="D12">
-        <v>0.8013182766838844</v>
+        <v>0.95388830578888</v>
       </c>
       <c r="E12">
-        <v>0.8233552455904901</v>
+        <v>0.9521706133734621</v>
       </c>
       <c r="F12">
-        <v>0.8127123376374382</v>
+        <v>0.9512639209288793</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004003775413705</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.8274740043090305</v>
+        <v>0.9686854718135314</v>
       </c>
       <c r="K12">
-        <v>0.8215854176068952</v>
+        <v>0.9699556659604277</v>
       </c>
       <c r="L12">
-        <v>0.8428820055625642</v>
+        <v>0.968275332857376</v>
       </c>
       <c r="M12">
-        <v>0.8325896913393066</v>
+        <v>0.9673884330010982</v>
       </c>
       <c r="N12">
-        <v>0.8286491123077444</v>
+        <v>0.9700611162932834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7877141852446514</v>
+        <v>0.9363274200485392</v>
       </c>
       <c r="D13">
-        <v>0.8042400286660034</v>
+        <v>0.9542663933033803</v>
       </c>
       <c r="E13">
-        <v>0.8260335027156526</v>
+        <v>0.9525207755522477</v>
       </c>
       <c r="F13">
-        <v>0.8156039051128431</v>
+        <v>0.9516873187695853</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004607279642296</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>0.8301710955627822</v>
+        <v>0.9689907439787258</v>
       </c>
       <c r="K13">
-        <v>0.8243441801193496</v>
+        <v>0.9702783654007568</v>
       </c>
       <c r="L13">
-        <v>0.8454150304394495</v>
+        <v>0.9685705465149258</v>
       </c>
       <c r="M13">
-        <v>0.8353245574126699</v>
+        <v>0.9677552020038985</v>
       </c>
       <c r="N13">
-        <v>0.8313500337404368</v>
+        <v>0.9703668219799676</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7972752341658756</v>
+        <v>0.9377328886035627</v>
       </c>
       <c r="D14">
-        <v>0.8132460636499662</v>
+        <v>0.9555000442275706</v>
       </c>
       <c r="E14">
-        <v>0.834292149715648</v>
+        <v>0.9536633791712876</v>
       </c>
       <c r="F14">
-        <v>0.8245191765248578</v>
+        <v>0.9530687913040112</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.006475340913824</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.8384835866520889</v>
+        <v>0.9699865765132306</v>
       </c>
       <c r="K14">
-        <v>0.8328470045395243</v>
+        <v>0.9713311069904137</v>
       </c>
       <c r="L14">
-        <v>0.8532233071610256</v>
+        <v>0.9695336374756235</v>
       </c>
       <c r="M14">
-        <v>0.8437554697610652</v>
+        <v>0.968951781386348</v>
       </c>
       <c r="N14">
-        <v>0.8396743295205464</v>
+        <v>0.9713640687108948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8027677405643221</v>
+        <v>0.9385940656658364</v>
       </c>
       <c r="D15">
-        <v>0.8184244083095406</v>
+        <v>0.9562562198738539</v>
       </c>
       <c r="E15">
-        <v>0.8390428884121593</v>
+        <v>0.9543637988370425</v>
       </c>
       <c r="F15">
-        <v>0.8296469192511309</v>
+        <v>0.9539155611004654</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.007554454571763</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.8432623406172949</v>
+        <v>0.9705968029913006</v>
       </c>
       <c r="K15">
-        <v>0.8377353829699327</v>
+        <v>0.9719762514681197</v>
       </c>
       <c r="L15">
-        <v>0.8577132008322016</v>
+        <v>0.9701238538092514</v>
       </c>
       <c r="M15">
-        <v>0.8486037338668387</v>
+        <v>0.9696851267928402</v>
       </c>
       <c r="N15">
-        <v>0.8444598698645138</v>
+        <v>0.9719751617805572</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8304433496195047</v>
+        <v>0.9435359275272525</v>
       </c>
       <c r="D16">
-        <v>0.8445650840461489</v>
+        <v>0.9605995891738038</v>
       </c>
       <c r="E16">
-        <v>0.8630480264231444</v>
+        <v>0.9583876644599808</v>
       </c>
       <c r="F16">
-        <v>0.8555506784331041</v>
+        <v>0.9587791226687364</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013048430633196</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.8673741954503182</v>
+        <v>0.9740991967383673</v>
       </c>
       <c r="K16">
-        <v>0.8624033253431985</v>
+        <v>0.9756797384749687</v>
       </c>
       <c r="L16">
-        <v>0.8803793994229144</v>
+        <v>0.9735121812023226</v>
       </c>
       <c r="M16">
-        <v>0.8730840607619789</v>
+        <v>0.9738957678046573</v>
       </c>
       <c r="N16">
-        <v>0.8686059662970689</v>
+        <v>0.9754825293284753</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8451597998726031</v>
+        <v>0.9465761680832715</v>
       </c>
       <c r="D17">
-        <v>0.8584953182966404</v>
+        <v>0.9632750601090503</v>
       </c>
       <c r="E17">
-        <v>0.8758555091826018</v>
+        <v>0.960866943661696</v>
       </c>
       <c r="F17">
-        <v>0.8693680423630495</v>
+        <v>0.9617749280358532</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016000388833597</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.8802132605340633</v>
+        <v>0.976254307657577</v>
       </c>
       <c r="K17">
-        <v>0.8755410660808276</v>
+        <v>0.9779591817742517</v>
       </c>
       <c r="L17">
-        <v>0.8924572756359677</v>
+        <v>0.9755977656126548</v>
       </c>
       <c r="M17">
-        <v>0.8861329202676944</v>
+        <v>0.9764881055621879</v>
       </c>
       <c r="N17">
-        <v>0.8814632643258939</v>
+        <v>0.9776407007523844</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8530689586130942</v>
+        <v>0.9483289268464824</v>
       </c>
       <c r="D18">
-        <v>0.8659897909328679</v>
+        <v>0.9648187040684635</v>
       </c>
       <c r="E18">
-        <v>0.8827502236039623</v>
+        <v>0.96229760055164</v>
       </c>
       <c r="F18">
-        <v>0.8768058990206036</v>
+        <v>0.9635033755907549</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017593116939342</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.8871171429543057</v>
+        <v>0.9774968888652042</v>
       </c>
       <c r="K18">
-        <v>0.8826064687784996</v>
+        <v>0.9792736628599734</v>
       </c>
       <c r="L18">
-        <v>0.8989545008703672</v>
+        <v>0.9768004886253264</v>
       </c>
       <c r="M18">
-        <v>0.8931540128993544</v>
+        <v>0.9779832994702112</v>
       </c>
       <c r="N18">
-        <v>0.8883769510510596</v>
+        <v>0.978885046567853</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8556684953284899</v>
+        <v>0.948923169311838</v>
       </c>
       <c r="D19">
-        <v>0.8684541772521414</v>
+        <v>0.9653422457889995</v>
       </c>
       <c r="E19">
-        <v>0.8850180413674772</v>
+        <v>0.962782855560256</v>
       </c>
       <c r="F19">
-        <v>0.8792523188989161</v>
+        <v>0.964089594011974</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018117351982991</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>0.8893867326614142</v>
+        <v>0.9779181808342334</v>
       </c>
       <c r="K19">
-        <v>0.8849293109643472</v>
+        <v>0.9797193682436603</v>
       </c>
       <c r="L19">
-        <v>0.9010908267349749</v>
+        <v>0.977208304869629</v>
       </c>
       <c r="M19">
-        <v>0.8954628475157299</v>
+        <v>0.9784903273634483</v>
       </c>
       <c r="N19">
-        <v>0.8906497638358777</v>
+        <v>0.9793069368198012</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8436551240974843</v>
+        <v>0.946252126268362</v>
       </c>
       <c r="D20">
-        <v>0.8570701415425872</v>
+        <v>0.9629897730885858</v>
       </c>
       <c r="E20">
-        <v>0.8745447218887823</v>
+        <v>0.9606025547477735</v>
       </c>
       <c r="F20">
-        <v>0.8679539630921974</v>
+        <v>0.9614554857460533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015697819405485</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.8789000980351327</v>
+        <v>0.9760245937136159</v>
       </c>
       <c r="K20">
-        <v>0.8741972576693207</v>
+        <v>0.9777161930499577</v>
       </c>
       <c r="L20">
-        <v>0.8912216761269229</v>
+        <v>0.975375438533161</v>
       </c>
       <c r="M20">
-        <v>0.8847978228059477</v>
+        <v>0.9762117336948862</v>
       </c>
       <c r="N20">
-        <v>0.8801482369855929</v>
+        <v>0.9774106605882751</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.794548836440587</v>
+        <v>0.9373200145357192</v>
       </c>
       <c r="D21">
-        <v>0.810676862335149</v>
+        <v>0.9551375855801033</v>
       </c>
       <c r="E21">
-        <v>0.8319356768804502</v>
+        <v>0.9533276601215293</v>
       </c>
       <c r="F21">
-        <v>0.8219755137805981</v>
+        <v>0.9526629043159461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005941267211923</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.8361124095230051</v>
+        <v>0.9696940281256978</v>
       </c>
       <c r="K21">
-        <v>0.8304214905961139</v>
+        <v>0.9710218308168318</v>
       </c>
       <c r="L21">
-        <v>0.8509957350713674</v>
+        <v>0.9692506964879667</v>
       </c>
       <c r="M21">
-        <v>0.8413501968448471</v>
+        <v>0.9686002371163612</v>
       </c>
       <c r="N21">
-        <v>0.8372997850479614</v>
+        <v>0.971071104871096</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7452706799171616</v>
+        <v>0.9314978087094092</v>
       </c>
       <c r="D22">
-        <v>0.764399447850053</v>
+        <v>0.9500314837073015</v>
       </c>
       <c r="E22">
-        <v>0.7895585463452081</v>
+        <v>0.9485992352489333</v>
       </c>
       <c r="F22">
-        <v>0.7762047134423002</v>
+        <v>0.9469447029795641</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9965036000948692</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.7933849870882983</v>
+        <v>0.9655695683698113</v>
       </c>
       <c r="K22">
-        <v>0.7867190891266743</v>
+        <v>0.9666623610037413</v>
       </c>
       <c r="L22">
-        <v>0.810885350030037</v>
+        <v>0.9652626763964637</v>
       </c>
       <c r="M22">
-        <v>0.7980471459576823</v>
+        <v>0.96364592564896</v>
       </c>
       <c r="N22">
-        <v>0.7945116847724935</v>
+        <v>0.9669407879092737</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.774707846158761</v>
+        <v>0.9346049145773143</v>
       </c>
       <c r="D23">
-        <v>0.7920061799745578</v>
+        <v>0.9527552286523645</v>
       </c>
       <c r="E23">
-        <v>0.8148226247757601</v>
+        <v>0.9511212850719436</v>
       </c>
       <c r="F23">
-        <v>0.8034988081319785</v>
+        <v>0.9499950361675005</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.00208923583121</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.8188770097150786</v>
+        <v>0.9677704153143456</v>
       </c>
       <c r="K23">
-        <v>0.8127920743274369</v>
+        <v>0.9689884216101823</v>
       </c>
       <c r="L23">
-        <v>0.8348094647997844</v>
+        <v>0.9673904875674229</v>
       </c>
       <c r="M23">
-        <v>0.8238742886248492</v>
+        <v>0.9662891553839019</v>
       </c>
       <c r="N23">
-        <v>0.8200399089953798</v>
+        <v>0.9691447603089104</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8443370467755479</v>
+        <v>0.9463986101385182</v>
       </c>
       <c r="D24">
-        <v>0.8577160106486948</v>
+        <v>0.9631187341030812</v>
       </c>
       <c r="E24">
-        <v>0.8751387379806436</v>
+        <v>0.9607220683494707</v>
       </c>
       <c r="F24">
-        <v>0.8685947900298036</v>
+        <v>0.9615998863414724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015834925754578</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.8794952152156242</v>
+        <v>0.9761284360916346</v>
       </c>
       <c r="K24">
-        <v>0.8748062604707925</v>
+        <v>0.9778260356420225</v>
       </c>
       <c r="L24">
-        <v>0.8917816338670655</v>
+        <v>0.9754759409640482</v>
       </c>
       <c r="M24">
-        <v>0.8854028668467527</v>
+        <v>0.9763366662123815</v>
       </c>
       <c r="N24">
-        <v>0.8807441993007417</v>
+        <v>0.977514650434381</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8959752216524537</v>
+        <v>0.9592856486312346</v>
       </c>
       <c r="D25">
-        <v>0.9067317124186132</v>
+        <v>0.9744877620878962</v>
       </c>
       <c r="E25">
-        <v>0.9202831269064552</v>
+        <v>0.9712622083984396</v>
       </c>
       <c r="F25">
-        <v>0.9172955064370238</v>
+        <v>0.9743302068517999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026264228655969</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.9245934160119443</v>
+        <v>0.985265437016154</v>
       </c>
       <c r="K25">
-        <v>0.9209738476363893</v>
+        <v>0.9874954693268913</v>
       </c>
       <c r="L25">
-        <v>0.934259327403512</v>
+        <v>0.9843236491217635</v>
       </c>
       <c r="M25">
-        <v>0.9313294513173622</v>
+        <v>0.9873405281127637</v>
       </c>
       <c r="N25">
-        <v>0.9259064447150284</v>
+        <v>0.9866646269482421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.969012945950277</v>
+        <v>1.027335366613918</v>
       </c>
       <c r="D2">
-        <v>0.9831000881573557</v>
+        <v>1.034881058108952</v>
       </c>
       <c r="E2">
-        <v>0.9792514338428299</v>
+        <v>1.027387393856686</v>
       </c>
       <c r="F2">
-        <v>0.9839751484322328</v>
+        <v>1.042010425207702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9921616955248828</v>
+        <v>1.032493811895247</v>
       </c>
       <c r="K2">
-        <v>0.9947999970176579</v>
+        <v>1.037679260548263</v>
       </c>
       <c r="L2">
-        <v>0.9910076027173143</v>
+        <v>1.030207270465784</v>
       </c>
       <c r="M2">
-        <v>0.9956623434350891</v>
+        <v>1.044788321311973</v>
       </c>
       <c r="N2">
-        <v>0.993570678935065</v>
+        <v>1.033960071536852</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9757950761530164</v>
+        <v>1.028727479668758</v>
       </c>
       <c r="D3">
-        <v>0.9891205879891112</v>
+        <v>1.036174129765367</v>
       </c>
       <c r="E3">
-        <v>0.9848385047709771</v>
+        <v>1.028585289557306</v>
       </c>
       <c r="F3">
-        <v>0.9907190830194823</v>
+        <v>1.043473244770953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9969680692811638</v>
+        <v>1.033523793130703</v>
       </c>
       <c r="K3">
-        <v>0.9998945919524205</v>
+        <v>1.038780324607272</v>
       </c>
       <c r="L3">
-        <v>0.9956691272365976</v>
+        <v>1.031211825966324</v>
       </c>
       <c r="M3">
-        <v>1.001472108599884</v>
+        <v>1.046060176221304</v>
       </c>
       <c r="N3">
-        <v>0.9983838782933792</v>
+        <v>1.034991515463785</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9800649107142909</v>
+        <v>1.029627962063276</v>
       </c>
       <c r="D4">
-        <v>0.9929176122713397</v>
+        <v>1.037010819290603</v>
       </c>
       <c r="E4">
-        <v>0.9883629866978044</v>
+        <v>1.029360361741198</v>
       </c>
       <c r="F4">
-        <v>0.9949733208921615</v>
+        <v>1.044420050316333</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9999926801517814</v>
+        <v>1.034189557042108</v>
       </c>
       <c r="K4">
-        <v>1.003102273801682</v>
+        <v>1.039492230414934</v>
       </c>
       <c r="L4">
-        <v>0.9986039193872794</v>
+        <v>1.031861234186112</v>
       </c>
       <c r="M4">
-        <v>1.00513279450773</v>
+        <v>1.046882906415014</v>
       </c>
       <c r="N4">
-        <v>1.00141278445836</v>
+        <v>1.035658224836308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.981833066969849</v>
+        <v>1.030006456032151</v>
       </c>
       <c r="D5">
-        <v>0.9944914997932573</v>
+        <v>1.037362563931431</v>
       </c>
       <c r="E5">
-        <v>0.9898240740541546</v>
+        <v>1.029686194208471</v>
       </c>
       <c r="F5">
-        <v>0.9967369865184531</v>
+        <v>1.044818154975199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.001244796050867</v>
+        <v>1.034469279179316</v>
       </c>
       <c r="K5">
-        <v>1.00443058335951</v>
+        <v>1.039791385866541</v>
       </c>
       <c r="L5">
-        <v>0.9998191578228798</v>
+        <v>1.032134103209044</v>
       </c>
       <c r="M5">
-        <v>1.00664936008379</v>
+        <v>1.047228727531681</v>
       </c>
       <c r="N5">
-        <v>1.002666678505643</v>
+        <v>1.035938344211035</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9821284139505665</v>
+        <v>1.030070002940092</v>
       </c>
       <c r="D6">
-        <v>0.9947544841186532</v>
+        <v>1.03742162353571</v>
       </c>
       <c r="E6">
-        <v>0.9900682196553336</v>
+        <v>1.029740902545407</v>
       </c>
       <c r="F6">
-        <v>0.9970316974753431</v>
+        <v>1.044885002595281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.001453920704604</v>
+        <v>1.034516236174856</v>
       </c>
       <c r="K6">
-        <v>1.0046524575656</v>
+        <v>1.03984160787391</v>
       </c>
       <c r="L6">
-        <v>1.000022140858961</v>
+        <v>1.032179910866667</v>
       </c>
       <c r="M6">
-        <v>1.006902719196995</v>
+        <v>1.047286789329637</v>
       </c>
       <c r="N6">
-        <v>1.002876100140375</v>
+        <v>1.035985367890895</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.980088640604267</v>
+        <v>1.029633019782616</v>
       </c>
       <c r="D7">
-        <v>0.9929387290145583</v>
+        <v>1.037015519313573</v>
       </c>
       <c r="E7">
-        <v>0.9883825893679977</v>
+        <v>1.029364715557514</v>
       </c>
       <c r="F7">
-        <v>0.9949969828054339</v>
+        <v>1.044425369538983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.000009486038951</v>
+        <v>1.034193295347354</v>
       </c>
       <c r="K7">
-        <v>1.003120100750497</v>
+        <v>1.039496228250306</v>
       </c>
       <c r="L7">
-        <v>0.9986202291162771</v>
+        <v>1.03186488083039</v>
       </c>
       <c r="M7">
-        <v>1.00515314534656</v>
+        <v>1.046887527503508</v>
       </c>
       <c r="N7">
-        <v>1.001429614211818</v>
+        <v>1.035661968450377</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9713305236888072</v>
+        <v>1.027805904410675</v>
       </c>
       <c r="D8">
-        <v>0.9851559416744243</v>
+        <v>1.035318062972578</v>
       </c>
       <c r="E8">
-        <v>0.9811590948599479</v>
+        <v>1.027792239882794</v>
       </c>
       <c r="F8">
-        <v>0.986277855867709</v>
+        <v>1.042504740103736</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9938043627868636</v>
+        <v>1.032842046354945</v>
       </c>
       <c r="K8">
-        <v>0.9965408116412321</v>
+        <v>1.038051487541045</v>
       </c>
       <c r="L8">
-        <v>0.9926004746620958</v>
+        <v>1.03054689204197</v>
       </c>
       <c r="M8">
-        <v>0.997646967509366</v>
+        <v>1.045218203762036</v>
       </c>
       <c r="N8">
-        <v>0.9952156789729745</v>
+        <v>1.034308800529407</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9549134847867682</v>
+        <v>1.024583718032479</v>
       </c>
       <c r="D9">
-        <v>0.9706253912267069</v>
+        <v>1.032326648677793</v>
       </c>
       <c r="E9">
-        <v>0.9676805777170462</v>
+        <v>1.025020835944708</v>
       </c>
       <c r="F9">
-        <v>0.9700052588066246</v>
+        <v>1.039122160523541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9821653759073549</v>
+        <v>1.03045544471044</v>
       </c>
       <c r="K9">
-        <v>0.9842137356028494</v>
+        <v>1.035501256147781</v>
       </c>
       <c r="L9">
-        <v>0.9813207231038868</v>
+        <v>1.028219650109888</v>
       </c>
       <c r="M9">
-        <v>0.9836044778011377</v>
+        <v>1.042274586937265</v>
       </c>
       <c r="N9">
-        <v>0.9835601633970867</v>
+        <v>1.031918809636821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9431895025140405</v>
+        <v>1.022433556368672</v>
       </c>
       <c r="D10">
-        <v>0.9602948937115598</v>
+        <v>1.030331945821979</v>
       </c>
       <c r="E10">
-        <v>0.958105341755879</v>
+        <v>1.023172691857872</v>
       </c>
       <c r="F10">
-        <v>0.9584379423287844</v>
+        <v>1.036868042639149</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9738536480301734</v>
+        <v>1.028860455335135</v>
       </c>
       <c r="K10">
-        <v>0.9754200528108241</v>
+        <v>1.03379791867725</v>
       </c>
       <c r="L10">
-        <v>0.9732745861655449</v>
+        <v>1.026664755764723</v>
       </c>
       <c r="M10">
-        <v>0.9736004729423031</v>
+        <v>1.040310542663705</v>
       </c>
       <c r="N10">
-        <v>0.9752366319129507</v>
+        <v>1.030321555193655</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9378975529467783</v>
+        <v>1.021501961062663</v>
       </c>
       <c r="D11">
-        <v>0.9556446151501334</v>
+        <v>1.029468062673378</v>
       </c>
       <c r="E11">
-        <v>0.9537972872271839</v>
+        <v>1.022372250587149</v>
       </c>
       <c r="F11">
-        <v>0.9532306834470049</v>
+        <v>1.035892142708855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9701032542897273</v>
+        <v>1.028168831217058</v>
       </c>
       <c r="K11">
-        <v>0.9714544585569928</v>
+        <v>1.033059551325002</v>
       </c>
       <c r="L11">
-        <v>0.9696464861036158</v>
+        <v>1.025990620762614</v>
       </c>
       <c r="M11">
-        <v>0.9690919937670194</v>
+        <v>1.039459646155185</v>
       </c>
       <c r="N11">
-        <v>0.9714809121832175</v>
+        <v>1.02962894889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9358965460953658</v>
+        <v>1.021155834842576</v>
       </c>
       <c r="D12">
-        <v>0.95388830578888</v>
+        <v>1.02914714873944</v>
       </c>
       <c r="E12">
-        <v>0.9521706133734621</v>
+        <v>1.022074899577408</v>
       </c>
       <c r="F12">
-        <v>0.9512639209288793</v>
+        <v>1.035529666700692</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9686854718135314</v>
+        <v>1.027911779487192</v>
       </c>
       <c r="K12">
-        <v>0.9699556659604277</v>
+        <v>1.032785162737396</v>
       </c>
       <c r="L12">
-        <v>0.968275332857376</v>
+        <v>1.025740084775817</v>
       </c>
       <c r="M12">
-        <v>0.9673884330010982</v>
+        <v>1.039143512426875</v>
       </c>
       <c r="N12">
-        <v>0.9700611162932834</v>
+        <v>1.029371532117193</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9363274200485392</v>
+        <v>1.021230084271147</v>
       </c>
       <c r="D13">
-        <v>0.9542663933033803</v>
+        <v>1.029215987267473</v>
       </c>
       <c r="E13">
-        <v>0.9525207755522477</v>
+        <v>1.022138683868013</v>
       </c>
       <c r="F13">
-        <v>0.9516873187695853</v>
+        <v>1.035607418369639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9689907439787258</v>
+        <v>1.027966924887085</v>
       </c>
       <c r="K13">
-        <v>0.9702783654007568</v>
+        <v>1.032844025794328</v>
       </c>
       <c r="L13">
-        <v>0.9685705465149258</v>
+        <v>1.025793831638828</v>
       </c>
       <c r="M13">
-        <v>0.9677552020038985</v>
+        <v>1.039211327561784</v>
       </c>
       <c r="N13">
-        <v>0.9703668219799676</v>
+        <v>1.029426755829879</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9377328886035627</v>
+        <v>1.021473352036747</v>
       </c>
       <c r="D14">
-        <v>0.9555000442275706</v>
+        <v>1.029441536451703</v>
       </c>
       <c r="E14">
-        <v>0.9536633791712876</v>
+        <v>1.022347672125561</v>
       </c>
       <c r="F14">
-        <v>0.9530687913040112</v>
+        <v>1.035862180020938</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9699865765132306</v>
+        <v>1.028147586359624</v>
       </c>
       <c r="K14">
-        <v>0.9713311069904137</v>
+        <v>1.033036872875254</v>
       </c>
       <c r="L14">
-        <v>0.9695336374756235</v>
+        <v>1.025969914098746</v>
       </c>
       <c r="M14">
-        <v>0.968951781386348</v>
+        <v>1.03943351595779</v>
       </c>
       <c r="N14">
-        <v>0.9713640687108948</v>
+        <v>1.029607673862431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9385940656658364</v>
+        <v>1.021623225199578</v>
       </c>
       <c r="D15">
-        <v>0.9562562198738539</v>
+        <v>1.029580500729455</v>
       </c>
       <c r="E15">
-        <v>0.9543637988370425</v>
+        <v>1.022476432395781</v>
       </c>
       <c r="F15">
-        <v>0.9539155611004654</v>
+        <v>1.036019149125891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9705968029913006</v>
+        <v>1.028258877628021</v>
       </c>
       <c r="K15">
-        <v>0.9719762514681197</v>
+        <v>1.033155675493107</v>
       </c>
       <c r="L15">
-        <v>0.9701238538092514</v>
+        <v>1.026078386680774</v>
       </c>
       <c r="M15">
-        <v>0.9696851267928402</v>
+        <v>1.039570403757194</v>
       </c>
       <c r="N15">
-        <v>0.9719751617805572</v>
+        <v>1.029719123177194</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9435359275272525</v>
+        <v>1.022495370952211</v>
       </c>
       <c r="D16">
-        <v>0.9605995891738038</v>
+        <v>1.03038927505438</v>
       </c>
       <c r="E16">
-        <v>0.9583876644599808</v>
+        <v>1.023225810315807</v>
       </c>
       <c r="F16">
-        <v>0.9587791226687364</v>
+        <v>1.03693281254774</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9740991967383673</v>
+        <v>1.028906335092203</v>
       </c>
       <c r="K16">
-        <v>0.9756797384749687</v>
+        <v>1.033846904238986</v>
       </c>
       <c r="L16">
-        <v>0.9735121812023226</v>
+        <v>1.026709477544684</v>
       </c>
       <c r="M16">
-        <v>0.9738957678046573</v>
+        <v>1.04036700391255</v>
       </c>
       <c r="N16">
-        <v>0.9754825293284753</v>
+        <v>1.03036750010524</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9465761680832715</v>
+        <v>1.023042290525656</v>
       </c>
       <c r="D17">
-        <v>0.9632750601090503</v>
+        <v>1.030896550708069</v>
       </c>
       <c r="E17">
-        <v>0.960866943661696</v>
+        <v>1.023695823532942</v>
       </c>
       <c r="F17">
-        <v>0.9617749280358532</v>
+        <v>1.0375059651788</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.976254307657577</v>
+        <v>1.029312201989157</v>
       </c>
       <c r="K17">
-        <v>0.9779591817742517</v>
+        <v>1.034280273659996</v>
       </c>
       <c r="L17">
-        <v>0.9755977656126548</v>
+        <v>1.027105112521694</v>
       </c>
       <c r="M17">
-        <v>0.9764881055621879</v>
+        <v>1.040866565566367</v>
       </c>
       <c r="N17">
-        <v>0.9776407007523844</v>
+        <v>1.030773943379742</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9483289268464824</v>
+        <v>1.023361245723389</v>
       </c>
       <c r="D18">
-        <v>0.9648187040684635</v>
+        <v>1.031192420542773</v>
       </c>
       <c r="E18">
-        <v>0.96229760055164</v>
+        <v>1.02396995693842</v>
       </c>
       <c r="F18">
-        <v>0.9635033755907549</v>
+        <v>1.037840290067522</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9774968888652042</v>
+        <v>1.029548842692929</v>
       </c>
       <c r="K18">
-        <v>0.9792736628599734</v>
+        <v>1.034532972750474</v>
       </c>
       <c r="L18">
-        <v>0.9768004886253264</v>
+        <v>1.027335797419519</v>
       </c>
       <c r="M18">
-        <v>0.9779832994702112</v>
+        <v>1.041157908113013</v>
       </c>
       <c r="N18">
-        <v>0.978885046567853</v>
+        <v>1.031010920140456</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.948923169311838</v>
+        <v>1.023469992267763</v>
       </c>
       <c r="D19">
-        <v>0.9653422457889995</v>
+        <v>1.031293302027153</v>
       </c>
       <c r="E19">
-        <v>0.962782855560256</v>
+        <v>1.024063426523684</v>
       </c>
       <c r="F19">
-        <v>0.964089594011974</v>
+        <v>1.037954288868121</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9779181808342334</v>
+        <v>1.029629515134557</v>
       </c>
       <c r="K19">
-        <v>0.9797193682436603</v>
+        <v>1.034619123514042</v>
       </c>
       <c r="L19">
-        <v>0.977208304869629</v>
+        <v>1.027414441161802</v>
       </c>
       <c r="M19">
-        <v>0.9784903273634483</v>
+        <v>1.04125724119365</v>
       </c>
       <c r="N19">
-        <v>0.9793069368198012</v>
+        <v>1.031091707146204</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.946252126268362</v>
+        <v>1.022983616834215</v>
       </c>
       <c r="D20">
-        <v>0.9629897730885858</v>
+        <v>1.030842126466818</v>
       </c>
       <c r="E20">
-        <v>0.9606025547477735</v>
+        <v>1.023645397388189</v>
       </c>
       <c r="F20">
-        <v>0.9614554857460533</v>
+        <v>1.037444469851583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9760245937136159</v>
+        <v>1.029268666126463</v>
       </c>
       <c r="K20">
-        <v>0.9777161930499577</v>
+        <v>1.034233785318249</v>
       </c>
       <c r="L20">
-        <v>0.975375438533161</v>
+        <v>1.02706267317257</v>
       </c>
       <c r="M20">
-        <v>0.9762117336948862</v>
+        <v>1.040812971845881</v>
       </c>
       <c r="N20">
-        <v>0.9774106605882751</v>
+        <v>1.030730345691129</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9373200145357192</v>
+        <v>1.021401718282093</v>
       </c>
       <c r="D21">
-        <v>0.9551375855801033</v>
+        <v>1.029375118684259</v>
       </c>
       <c r="E21">
-        <v>0.9533276601215293</v>
+        <v>1.022286131194175</v>
       </c>
       <c r="F21">
-        <v>0.9526629043159461</v>
+        <v>1.03578715864874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9696940281256978</v>
+        <v>1.028094390279943</v>
       </c>
       <c r="K21">
-        <v>0.9710218308168318</v>
+        <v>1.032980087730962</v>
       </c>
       <c r="L21">
-        <v>0.9692506964879667</v>
+        <v>1.025918065883094</v>
       </c>
       <c r="M21">
-        <v>0.9686002371163612</v>
+        <v>1.039368089064449</v>
       </c>
       <c r="N21">
-        <v>0.971071104871096</v>
+        <v>1.029554402238215</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9314978087094092</v>
+        <v>1.020406590792212</v>
       </c>
       <c r="D22">
-        <v>0.9500314837073015</v>
+        <v>1.028452580996316</v>
       </c>
       <c r="E22">
-        <v>0.9485992352489333</v>
+        <v>1.021431322430792</v>
       </c>
       <c r="F22">
-        <v>0.9469447029795641</v>
+        <v>1.034745235042274</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9655695683698113</v>
+        <v>1.027355196534637</v>
       </c>
       <c r="K22">
-        <v>0.9666623610037413</v>
+        <v>1.032191106744529</v>
       </c>
       <c r="L22">
-        <v>0.9652626763964637</v>
+        <v>1.025197638956192</v>
       </c>
       <c r="M22">
-        <v>0.96364592564896</v>
+        <v>1.038459209809445</v>
       </c>
       <c r="N22">
-        <v>0.9669407879092737</v>
+        <v>1.028814158753004</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9346049145773143</v>
+        <v>1.020934178464495</v>
       </c>
       <c r="D23">
-        <v>0.9527552286523645</v>
+        <v>1.028941653519684</v>
       </c>
       <c r="E23">
-        <v>0.9511212850719436</v>
+        <v>1.021884491537471</v>
       </c>
       <c r="F23">
-        <v>0.9499950361675005</v>
+        <v>1.035297571435951</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9677704153143456</v>
+        <v>1.027747141878148</v>
       </c>
       <c r="K23">
-        <v>0.9689884216101823</v>
+        <v>1.032609431254527</v>
       </c>
       <c r="L23">
-        <v>0.9673904875674229</v>
+        <v>1.025579624834041</v>
       </c>
       <c r="M23">
-        <v>0.9662891553839019</v>
+        <v>1.038941065744512</v>
       </c>
       <c r="N23">
-        <v>0.9691447603089104</v>
+        <v>1.02920666070386</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9463986101385182</v>
+        <v>1.02301012911545</v>
       </c>
       <c r="D24">
-        <v>0.9631187341030812</v>
+        <v>1.030866718486321</v>
       </c>
       <c r="E24">
-        <v>0.9607220683494707</v>
+        <v>1.023668182845848</v>
       </c>
       <c r="F24">
-        <v>0.9615998863414724</v>
+        <v>1.037472256897304</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9761284360916346</v>
+        <v>1.02928833840087</v>
       </c>
       <c r="K24">
-        <v>0.9778260356420225</v>
+        <v>1.034254791639458</v>
       </c>
       <c r="L24">
-        <v>0.9754759409640482</v>
+        <v>1.027081849941721</v>
       </c>
       <c r="M24">
-        <v>0.9763366662123815</v>
+        <v>1.040837188674797</v>
       </c>
       <c r="N24">
-        <v>0.977514650434381</v>
+        <v>1.030750045902422</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9592856486312346</v>
+        <v>1.025417067088078</v>
       </c>
       <c r="D25">
-        <v>0.9744877620878962</v>
+        <v>1.033100058618121</v>
       </c>
       <c r="E25">
-        <v>0.9712622083984396</v>
+        <v>1.025737390675232</v>
       </c>
       <c r="F25">
-        <v>0.9743302068517999</v>
+        <v>1.039996452642754</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.985265437016154</v>
+        <v>1.031073114602026</v>
       </c>
       <c r="K25">
-        <v>0.9874954693268913</v>
+        <v>1.036161097295538</v>
       </c>
       <c r="L25">
-        <v>0.9843236491217635</v>
+        <v>1.028821883351618</v>
       </c>
       <c r="M25">
-        <v>0.9873405281127637</v>
+        <v>1.04303585180819</v>
       </c>
       <c r="N25">
-        <v>0.9866646269482421</v>
+        <v>1.032537356690501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027335366613918</v>
+        <v>0.9690129459502771</v>
       </c>
       <c r="D2">
-        <v>1.034881058108952</v>
+        <v>0.9831000881573561</v>
       </c>
       <c r="E2">
-        <v>1.027387393856686</v>
+        <v>0.9792514338428298</v>
       </c>
       <c r="F2">
-        <v>1.042010425207702</v>
+        <v>0.9839751484322334</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.032493811895247</v>
+        <v>0.9921616955248831</v>
       </c>
       <c r="K2">
-        <v>1.037679260548263</v>
+        <v>0.9947999970176582</v>
       </c>
       <c r="L2">
-        <v>1.030207270465784</v>
+        <v>0.9910076027173143</v>
       </c>
       <c r="M2">
-        <v>1.044788321311973</v>
+        <v>0.9956623434350896</v>
       </c>
       <c r="N2">
-        <v>1.033960071536852</v>
+        <v>0.9935706789350653</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028727479668758</v>
+        <v>0.9757950761530161</v>
       </c>
       <c r="D3">
-        <v>1.036174129765367</v>
+        <v>0.9891205879891104</v>
       </c>
       <c r="E3">
-        <v>1.028585289557306</v>
+        <v>0.9848385047709768</v>
       </c>
       <c r="F3">
-        <v>1.043473244770953</v>
+        <v>0.9907190830194815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.033523793130703</v>
+        <v>0.9969680692811631</v>
       </c>
       <c r="K3">
-        <v>1.038780324607272</v>
+        <v>0.9998945919524197</v>
       </c>
       <c r="L3">
-        <v>1.031211825966324</v>
+        <v>0.9956691272365973</v>
       </c>
       <c r="M3">
-        <v>1.046060176221304</v>
+        <v>1.001472108599883</v>
       </c>
       <c r="N3">
-        <v>1.034991515463785</v>
+        <v>0.9983838782933784</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029627962063276</v>
+        <v>0.9800649107142908</v>
       </c>
       <c r="D4">
-        <v>1.037010819290603</v>
+        <v>0.9929176122713392</v>
       </c>
       <c r="E4">
-        <v>1.029360361741198</v>
+        <v>0.9883629866978041</v>
       </c>
       <c r="F4">
-        <v>1.044420050316333</v>
+        <v>0.9949733208921611</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.034189557042108</v>
+        <v>0.9999926801517811</v>
       </c>
       <c r="K4">
-        <v>1.039492230414934</v>
+        <v>1.003102273801682</v>
       </c>
       <c r="L4">
-        <v>1.031861234186112</v>
+        <v>0.9986039193872791</v>
       </c>
       <c r="M4">
-        <v>1.046882906415014</v>
+        <v>1.00513279450773</v>
       </c>
       <c r="N4">
-        <v>1.035658224836308</v>
+        <v>1.00141278445836</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030006456032151</v>
+        <v>0.9818330669698481</v>
       </c>
       <c r="D5">
-        <v>1.037362563931431</v>
+        <v>0.9944914997932564</v>
       </c>
       <c r="E5">
-        <v>1.029686194208471</v>
+        <v>0.9898240740541534</v>
       </c>
       <c r="F5">
-        <v>1.044818154975199</v>
+        <v>0.9967369865184523</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.034469279179316</v>
+        <v>1.001244796050867</v>
       </c>
       <c r="K5">
-        <v>1.039791385866541</v>
+        <v>1.004430583359509</v>
       </c>
       <c r="L5">
-        <v>1.032134103209044</v>
+        <v>0.9998191578228787</v>
       </c>
       <c r="M5">
-        <v>1.047228727531681</v>
+        <v>1.006649360083789</v>
       </c>
       <c r="N5">
-        <v>1.035938344211035</v>
+        <v>1.002666678505642</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030070002940092</v>
+        <v>0.9821284139505659</v>
       </c>
       <c r="D6">
-        <v>1.03742162353571</v>
+        <v>0.9947544841186527</v>
       </c>
       <c r="E6">
-        <v>1.029740902545407</v>
+        <v>0.9900682196553332</v>
       </c>
       <c r="F6">
-        <v>1.044885002595281</v>
+        <v>0.9970316974753425</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.034516236174856</v>
+        <v>1.001453920704604</v>
       </c>
       <c r="K6">
-        <v>1.03984160787391</v>
+        <v>1.004652457565599</v>
       </c>
       <c r="L6">
-        <v>1.032179910866667</v>
+        <v>1.00002214085896</v>
       </c>
       <c r="M6">
-        <v>1.047286789329637</v>
+        <v>1.006902719196994</v>
       </c>
       <c r="N6">
-        <v>1.035985367890895</v>
+        <v>1.002876100140375</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029633019782616</v>
+        <v>0.9800886406042677</v>
       </c>
       <c r="D7">
-        <v>1.037015519313573</v>
+        <v>0.9929387290145588</v>
       </c>
       <c r="E7">
-        <v>1.029364715557514</v>
+        <v>0.9883825893679982</v>
       </c>
       <c r="F7">
-        <v>1.044425369538983</v>
+        <v>0.9949969828054345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.034193295347354</v>
+        <v>1.000009486038952</v>
       </c>
       <c r="K7">
-        <v>1.039496228250306</v>
+        <v>1.003120100750498</v>
       </c>
       <c r="L7">
-        <v>1.03186488083039</v>
+        <v>0.9986202291162776</v>
       </c>
       <c r="M7">
-        <v>1.046887527503508</v>
+        <v>1.005153145346561</v>
       </c>
       <c r="N7">
-        <v>1.035661968450377</v>
+        <v>1.001429614211818</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027805904410675</v>
+        <v>0.9713305236888067</v>
       </c>
       <c r="D8">
-        <v>1.035318062972578</v>
+        <v>0.9851559416744234</v>
       </c>
       <c r="E8">
-        <v>1.027792239882794</v>
+        <v>0.9811590948599471</v>
       </c>
       <c r="F8">
-        <v>1.042504740103736</v>
+        <v>0.9862778558677081</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.032842046354945</v>
+        <v>0.9938043627868629</v>
       </c>
       <c r="K8">
-        <v>1.038051487541045</v>
+        <v>0.9965408116412312</v>
       </c>
       <c r="L8">
-        <v>1.03054689204197</v>
+        <v>0.9926004746620951</v>
       </c>
       <c r="M8">
-        <v>1.045218203762036</v>
+        <v>0.9976469675093652</v>
       </c>
       <c r="N8">
-        <v>1.034308800529407</v>
+        <v>0.9952156789729738</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024583718032479</v>
+        <v>0.9549134847867682</v>
       </c>
       <c r="D9">
-        <v>1.032326648677793</v>
+        <v>0.9706253912267072</v>
       </c>
       <c r="E9">
-        <v>1.025020835944708</v>
+        <v>0.9676805777170462</v>
       </c>
       <c r="F9">
-        <v>1.039122160523541</v>
+        <v>0.9700052588066245</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.03045544471044</v>
+        <v>0.982165375907355</v>
       </c>
       <c r="K9">
-        <v>1.035501256147781</v>
+        <v>0.9842137356028496</v>
       </c>
       <c r="L9">
-        <v>1.028219650109888</v>
+        <v>0.9813207231038871</v>
       </c>
       <c r="M9">
-        <v>1.042274586937265</v>
+        <v>0.9836044778011375</v>
       </c>
       <c r="N9">
-        <v>1.031918809636821</v>
+        <v>0.9835601633970866</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022433556368672</v>
+        <v>0.9431895025140409</v>
       </c>
       <c r="D10">
-        <v>1.030331945821979</v>
+        <v>0.9602948937115605</v>
       </c>
       <c r="E10">
-        <v>1.023172691857872</v>
+        <v>0.9581053417558791</v>
       </c>
       <c r="F10">
-        <v>1.036868042639149</v>
+        <v>0.958437942328785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.028860455335135</v>
+        <v>0.9738536480301737</v>
       </c>
       <c r="K10">
-        <v>1.03379791867725</v>
+        <v>0.9754200528108247</v>
       </c>
       <c r="L10">
-        <v>1.026664755764723</v>
+        <v>0.973274586165545</v>
       </c>
       <c r="M10">
-        <v>1.040310542663705</v>
+        <v>0.9736004729423037</v>
       </c>
       <c r="N10">
-        <v>1.030321555193655</v>
+        <v>0.9752366319129513</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021501961062663</v>
+        <v>0.9378975529467793</v>
       </c>
       <c r="D11">
-        <v>1.029468062673378</v>
+        <v>0.9556446151501345</v>
       </c>
       <c r="E11">
-        <v>1.022372250587149</v>
+        <v>0.9537972872271847</v>
       </c>
       <c r="F11">
-        <v>1.035892142708855</v>
+        <v>0.9532306834470059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.028168831217058</v>
+        <v>0.9701032542897282</v>
       </c>
       <c r="K11">
-        <v>1.033059551325002</v>
+        <v>0.9714544585569939</v>
       </c>
       <c r="L11">
-        <v>1.025990620762614</v>
+        <v>0.9696464861036168</v>
       </c>
       <c r="M11">
-        <v>1.039459646155185</v>
+        <v>0.9690919937670203</v>
       </c>
       <c r="N11">
-        <v>1.02962894889</v>
+        <v>0.9714809121832181</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021155834842576</v>
+        <v>0.9358965460953665</v>
       </c>
       <c r="D12">
-        <v>1.02914714873944</v>
+        <v>0.9538883057888807</v>
       </c>
       <c r="E12">
-        <v>1.022074899577408</v>
+        <v>0.9521706133734628</v>
       </c>
       <c r="F12">
-        <v>1.035529666700692</v>
+        <v>0.9512639209288802</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.027911779487192</v>
+        <v>0.9686854718135323</v>
       </c>
       <c r="K12">
-        <v>1.032785162737396</v>
+        <v>0.9699556659604286</v>
       </c>
       <c r="L12">
-        <v>1.025740084775817</v>
+        <v>0.9682753328573767</v>
       </c>
       <c r="M12">
-        <v>1.039143512426875</v>
+        <v>0.9673884330010991</v>
       </c>
       <c r="N12">
-        <v>1.029371532117193</v>
+        <v>0.970061116293284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021230084271147</v>
+        <v>0.9363274200485374</v>
       </c>
       <c r="D13">
-        <v>1.029215987267473</v>
+        <v>0.9542663933033783</v>
       </c>
       <c r="E13">
-        <v>1.022138683868013</v>
+        <v>0.9525207755522458</v>
       </c>
       <c r="F13">
-        <v>1.035607418369639</v>
+        <v>0.9516873187695831</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.027966924887085</v>
+        <v>0.9689907439787239</v>
       </c>
       <c r="K13">
-        <v>1.032844025794328</v>
+        <v>0.9702783654007547</v>
       </c>
       <c r="L13">
-        <v>1.025793831638828</v>
+        <v>0.968570546514924</v>
       </c>
       <c r="M13">
-        <v>1.039211327561784</v>
+        <v>0.9677552020038964</v>
       </c>
       <c r="N13">
-        <v>1.029426755829879</v>
+        <v>0.9703668219799657</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021473352036747</v>
+        <v>0.9377328886035609</v>
       </c>
       <c r="D14">
-        <v>1.029441536451703</v>
+        <v>0.9555000442275686</v>
       </c>
       <c r="E14">
-        <v>1.022347672125561</v>
+        <v>0.9536633791712857</v>
       </c>
       <c r="F14">
-        <v>1.035862180020938</v>
+        <v>0.9530687913040091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.028147586359624</v>
+        <v>0.9699865765132287</v>
       </c>
       <c r="K14">
-        <v>1.033036872875254</v>
+        <v>0.9713311069904118</v>
       </c>
       <c r="L14">
-        <v>1.025969914098746</v>
+        <v>0.9695336374756215</v>
       </c>
       <c r="M14">
-        <v>1.03943351595779</v>
+        <v>0.9689517813863457</v>
       </c>
       <c r="N14">
-        <v>1.029607673862431</v>
+        <v>0.9713640687108929</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021623225199578</v>
+        <v>0.938594065665836</v>
       </c>
       <c r="D15">
-        <v>1.029580500729455</v>
+        <v>0.9562562198738531</v>
       </c>
       <c r="E15">
-        <v>1.022476432395781</v>
+        <v>0.9543637988370416</v>
       </c>
       <c r="F15">
-        <v>1.036019149125891</v>
+        <v>0.9539155611004645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.028258877628021</v>
+        <v>0.9705968029912999</v>
       </c>
       <c r="K15">
-        <v>1.033155675493107</v>
+        <v>0.9719762514681191</v>
       </c>
       <c r="L15">
-        <v>1.026078386680774</v>
+        <v>0.9701238538092505</v>
       </c>
       <c r="M15">
-        <v>1.039570403757194</v>
+        <v>0.9696851267928394</v>
       </c>
       <c r="N15">
-        <v>1.029719123177194</v>
+        <v>0.9719751617805567</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022495370952211</v>
+        <v>0.9435359275272511</v>
       </c>
       <c r="D16">
-        <v>1.03038927505438</v>
+        <v>0.9605995891738024</v>
       </c>
       <c r="E16">
-        <v>1.023225810315807</v>
+        <v>0.9583876644599792</v>
       </c>
       <c r="F16">
-        <v>1.03693281254774</v>
+        <v>0.9587791226687348</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.028906335092203</v>
+        <v>0.9740991967383661</v>
       </c>
       <c r="K16">
-        <v>1.033846904238986</v>
+        <v>0.9756797384749673</v>
       </c>
       <c r="L16">
-        <v>1.026709477544684</v>
+        <v>0.9735121812023211</v>
       </c>
       <c r="M16">
-        <v>1.04036700391255</v>
+        <v>0.9738957678046557</v>
       </c>
       <c r="N16">
-        <v>1.03036750010524</v>
+        <v>0.975482529328474</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023042290525656</v>
+        <v>0.9465761680832716</v>
       </c>
       <c r="D17">
-        <v>1.030896550708069</v>
+        <v>0.9632750601090505</v>
       </c>
       <c r="E17">
-        <v>1.023695823532942</v>
+        <v>0.9608669436616961</v>
       </c>
       <c r="F17">
-        <v>1.0375059651788</v>
+        <v>0.9617749280358532</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.029312201989157</v>
+        <v>0.9762543076575769</v>
       </c>
       <c r="K17">
-        <v>1.034280273659996</v>
+        <v>0.9779591817742519</v>
       </c>
       <c r="L17">
-        <v>1.027105112521694</v>
+        <v>0.9755977656126549</v>
       </c>
       <c r="M17">
-        <v>1.040866565566367</v>
+        <v>0.9764881055621879</v>
       </c>
       <c r="N17">
-        <v>1.030773943379742</v>
+        <v>0.977640700752385</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023361245723389</v>
+        <v>0.9483289268464821</v>
       </c>
       <c r="D18">
-        <v>1.031192420542773</v>
+        <v>0.9648187040684629</v>
       </c>
       <c r="E18">
-        <v>1.02396995693842</v>
+        <v>0.9622976005516398</v>
       </c>
       <c r="F18">
-        <v>1.037840290067522</v>
+        <v>0.9635033755907543</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.029548842692929</v>
+        <v>0.9774968888652039</v>
       </c>
       <c r="K18">
-        <v>1.034532972750474</v>
+        <v>0.979273662859973</v>
       </c>
       <c r="L18">
-        <v>1.027335797419519</v>
+        <v>0.9768004886253261</v>
       </c>
       <c r="M18">
-        <v>1.041157908113013</v>
+        <v>0.9779832994702106</v>
       </c>
       <c r="N18">
-        <v>1.031010920140456</v>
+        <v>0.9788850465678526</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023469992267763</v>
+        <v>0.9489231693118391</v>
       </c>
       <c r="D19">
-        <v>1.031293302027153</v>
+        <v>0.9653422457890005</v>
       </c>
       <c r="E19">
-        <v>1.024063426523684</v>
+        <v>0.9627828555602568</v>
       </c>
       <c r="F19">
-        <v>1.037954288868121</v>
+        <v>0.9640895940119748</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.029629515134557</v>
+        <v>0.9779181808342343</v>
       </c>
       <c r="K19">
-        <v>1.034619123514042</v>
+        <v>0.9797193682436613</v>
       </c>
       <c r="L19">
-        <v>1.027414441161802</v>
+        <v>0.9772083048696298</v>
       </c>
       <c r="M19">
-        <v>1.04125724119365</v>
+        <v>0.9784903273634493</v>
       </c>
       <c r="N19">
-        <v>1.031091707146204</v>
+        <v>0.979306936819802</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022983616834215</v>
+        <v>0.9462521262683617</v>
       </c>
       <c r="D20">
-        <v>1.030842126466818</v>
+        <v>0.9629897730885857</v>
       </c>
       <c r="E20">
-        <v>1.023645397388189</v>
+        <v>0.9606025547477733</v>
       </c>
       <c r="F20">
-        <v>1.037444469851583</v>
+        <v>0.9614554857460533</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.029268666126463</v>
+        <v>0.9760245937136157</v>
       </c>
       <c r="K20">
-        <v>1.034233785318249</v>
+        <v>0.9777161930499575</v>
       </c>
       <c r="L20">
-        <v>1.02706267317257</v>
+        <v>0.9753754385331608</v>
       </c>
       <c r="M20">
-        <v>1.040812971845881</v>
+        <v>0.9762117336948858</v>
       </c>
       <c r="N20">
-        <v>1.030730345691129</v>
+        <v>0.977410660588275</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021401718282093</v>
+        <v>0.9373200145357198</v>
       </c>
       <c r="D21">
-        <v>1.029375118684259</v>
+        <v>0.955137585580104</v>
       </c>
       <c r="E21">
-        <v>1.022286131194175</v>
+        <v>0.9533276601215296</v>
       </c>
       <c r="F21">
-        <v>1.03578715864874</v>
+        <v>0.9526629043159467</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.028094390279943</v>
+        <v>0.9696940281256982</v>
       </c>
       <c r="K21">
-        <v>1.032980087730962</v>
+        <v>0.9710218308168321</v>
       </c>
       <c r="L21">
-        <v>1.025918065883094</v>
+        <v>0.969250696487967</v>
       </c>
       <c r="M21">
-        <v>1.039368089064449</v>
+        <v>0.9686002371163619</v>
       </c>
       <c r="N21">
-        <v>1.029554402238215</v>
+        <v>0.9710711048710965</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020406590792212</v>
+        <v>0.9314978087094098</v>
       </c>
       <c r="D22">
-        <v>1.028452580996316</v>
+        <v>0.9500314837073021</v>
       </c>
       <c r="E22">
-        <v>1.021431322430792</v>
+        <v>0.9485992352489337</v>
       </c>
       <c r="F22">
-        <v>1.034745235042274</v>
+        <v>0.9469447029795648</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.027355196534637</v>
+        <v>0.9655695683698119</v>
       </c>
       <c r="K22">
-        <v>1.032191106744529</v>
+        <v>0.9666623610037418</v>
       </c>
       <c r="L22">
-        <v>1.025197638956192</v>
+        <v>0.965262676396464</v>
       </c>
       <c r="M22">
-        <v>1.038459209809445</v>
+        <v>0.9636459256489608</v>
       </c>
       <c r="N22">
-        <v>1.028814158753004</v>
+        <v>0.9669407879092742</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020934178464495</v>
+        <v>0.9346049145773144</v>
       </c>
       <c r="D23">
-        <v>1.028941653519684</v>
+        <v>0.9527552286523644</v>
       </c>
       <c r="E23">
-        <v>1.021884491537471</v>
+        <v>0.9511212850719435</v>
       </c>
       <c r="F23">
-        <v>1.035297571435951</v>
+        <v>0.9499950361675006</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.027747141878148</v>
+        <v>0.9677704153143456</v>
       </c>
       <c r="K23">
-        <v>1.032609431254527</v>
+        <v>0.9689884216101822</v>
       </c>
       <c r="L23">
-        <v>1.025579624834041</v>
+        <v>0.967390487567423</v>
       </c>
       <c r="M23">
-        <v>1.038941065744512</v>
+        <v>0.9662891553839019</v>
       </c>
       <c r="N23">
-        <v>1.02920666070386</v>
+        <v>0.9691447603089103</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02301012911545</v>
+        <v>0.9463986101385202</v>
       </c>
       <c r="D24">
-        <v>1.030866718486321</v>
+        <v>0.9631187341030835</v>
       </c>
       <c r="E24">
-        <v>1.023668182845848</v>
+        <v>0.9607220683494726</v>
       </c>
       <c r="F24">
-        <v>1.037472256897304</v>
+        <v>0.9615998863414748</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.02928833840087</v>
+        <v>0.9761284360916365</v>
       </c>
       <c r="K24">
-        <v>1.034254791639458</v>
+        <v>0.9778260356420245</v>
       </c>
       <c r="L24">
-        <v>1.027081849941721</v>
+        <v>0.97547594096405</v>
       </c>
       <c r="M24">
-        <v>1.040837188674797</v>
+        <v>0.9763366662123839</v>
       </c>
       <c r="N24">
-        <v>1.030750045902422</v>
+        <v>0.9775146504343829</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025417067088078</v>
+        <v>0.9592856486312346</v>
       </c>
       <c r="D25">
-        <v>1.033100058618121</v>
+        <v>0.9744877620878966</v>
       </c>
       <c r="E25">
-        <v>1.025737390675232</v>
+        <v>0.9712622083984395</v>
       </c>
       <c r="F25">
-        <v>1.039996452642754</v>
+        <v>0.9743302068518002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.031073114602026</v>
+        <v>0.985265437016154</v>
       </c>
       <c r="K25">
-        <v>1.036161097295538</v>
+        <v>0.9874954693268915</v>
       </c>
       <c r="L25">
-        <v>1.028821883351618</v>
+        <v>0.9843236491217633</v>
       </c>
       <c r="M25">
-        <v>1.04303585180819</v>
+        <v>0.9873405281127638</v>
       </c>
       <c r="N25">
-        <v>1.032537356690501</v>
+        <v>0.9866646269482423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9690129459502771</v>
+        <v>1.005117242931062</v>
       </c>
       <c r="D2">
-        <v>0.9831000881573561</v>
+        <v>1.016976682735795</v>
       </c>
       <c r="E2">
-        <v>0.9792514338428298</v>
+        <v>1.019481956955127</v>
       </c>
       <c r="F2">
-        <v>0.9839751484322334</v>
+        <v>1.027372627031468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.049447902301049</v>
       </c>
       <c r="J2">
-        <v>0.9921616955248831</v>
+        <v>1.02714596802912</v>
       </c>
       <c r="K2">
-        <v>0.9947999970176582</v>
+        <v>1.028204465332562</v>
       </c>
       <c r="L2">
-        <v>0.9910076027173143</v>
+        <v>1.03067638870166</v>
       </c>
       <c r="M2">
-        <v>0.9956623434350896</v>
+        <v>1.038463347411785</v>
       </c>
       <c r="N2">
-        <v>0.9935706789350653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013012634534703</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039013548370477</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031013143402549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9757950761530161</v>
+        <v>1.008698171412713</v>
       </c>
       <c r="D3">
-        <v>0.9891205879891104</v>
+        <v>1.019565907617287</v>
       </c>
       <c r="E3">
-        <v>0.9848385047709768</v>
+        <v>1.022297179424197</v>
       </c>
       <c r="F3">
-        <v>0.9907190830194815</v>
+        <v>1.030182143357447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.050176326350512</v>
       </c>
       <c r="J3">
-        <v>0.9969680692811631</v>
+        <v>1.028954491727656</v>
       </c>
       <c r="K3">
-        <v>0.9998945919524197</v>
+        <v>1.029954413237089</v>
       </c>
       <c r="L3">
-        <v>0.9956691272365973</v>
+        <v>1.032652496249864</v>
       </c>
       <c r="M3">
-        <v>1.001472108599883</v>
+        <v>1.040442870745142</v>
       </c>
       <c r="N3">
-        <v>0.9983838782933784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013614759438164</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040580209896637</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032247842940332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9800649107142908</v>
+        <v>1.010972937998714</v>
       </c>
       <c r="D4">
-        <v>0.9929176122713392</v>
+        <v>1.021217090567967</v>
       </c>
       <c r="E4">
-        <v>0.9883629866978041</v>
+        <v>1.024091659973415</v>
       </c>
       <c r="F4">
-        <v>0.9949733208921611</v>
+        <v>1.031975447751408</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.05062192313369</v>
       </c>
       <c r="J4">
-        <v>0.9999926801517811</v>
+        <v>1.030100059703343</v>
       </c>
       <c r="K4">
-        <v>1.003102273801682</v>
+        <v>1.031066014285728</v>
       </c>
       <c r="L4">
-        <v>0.9986039193872791</v>
+        <v>1.033907761444251</v>
       </c>
       <c r="M4">
-        <v>1.00513279450773</v>
+        <v>1.041702686228571</v>
       </c>
       <c r="N4">
-        <v>1.00141278445836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013996234840357</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041577268584093</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03303476063216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9818330669698481</v>
+        <v>1.011922566045209</v>
       </c>
       <c r="D5">
-        <v>0.9944914997932564</v>
+        <v>1.021910746216675</v>
       </c>
       <c r="E5">
-        <v>0.9898240740541534</v>
+        <v>1.0248423619974</v>
       </c>
       <c r="F5">
-        <v>0.9967369865184523</v>
+        <v>1.032725713033949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.05080443654366</v>
       </c>
       <c r="J5">
-        <v>1.001244796050867</v>
+        <v>1.030578972569481</v>
       </c>
       <c r="K5">
-        <v>1.004430583359509</v>
+        <v>1.031533572555958</v>
       </c>
       <c r="L5">
-        <v>0.9998191578228787</v>
+        <v>1.034432606560511</v>
       </c>
       <c r="M5">
-        <v>1.006649360083789</v>
+        <v>1.042229468671782</v>
       </c>
       <c r="N5">
-        <v>1.002666678505642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014155978310976</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041994180826244</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033372605213001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9821284139505659</v>
+        <v>1.012085310375685</v>
       </c>
       <c r="D6">
-        <v>0.9947544841186527</v>
+        <v>1.022033156416004</v>
       </c>
       <c r="E6">
-        <v>0.9900682196553332</v>
+        <v>1.024971258855496</v>
       </c>
       <c r="F6">
-        <v>0.9970316974753425</v>
+        <v>1.032853918135306</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.050836290585847</v>
       </c>
       <c r="J6">
-        <v>1.001453920704604</v>
+        <v>1.030662824178592</v>
       </c>
       <c r="K6">
-        <v>1.004652457565599</v>
+        <v>1.031617996659878</v>
       </c>
       <c r="L6">
-        <v>1.00002214085896</v>
+        <v>1.034523594968611</v>
       </c>
       <c r="M6">
-        <v>1.006902719196994</v>
+        <v>1.04232016937176</v>
       </c>
       <c r="N6">
-        <v>1.002876100140375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014184249578639</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042065964197017</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033441123878752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9800886406042677</v>
+        <v>1.010996080920816</v>
       </c>
       <c r="D7">
-        <v>0.9929387290145588</v>
+        <v>1.021243211958493</v>
       </c>
       <c r="E7">
-        <v>0.9883825893679982</v>
+        <v>1.024110383030954</v>
       </c>
       <c r="F7">
-        <v>0.9949969828054345</v>
+        <v>1.03199240339609</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874438</v>
+        <v>1.050628596658043</v>
       </c>
       <c r="J7">
-        <v>1.000009486038952</v>
+        <v>1.03011663846769</v>
       </c>
       <c r="K7">
-        <v>1.003120100750498</v>
+        <v>1.031088918661253</v>
       </c>
       <c r="L7">
-        <v>0.9986202291162776</v>
+        <v>1.033923364670471</v>
       </c>
       <c r="M7">
-        <v>1.005153145346561</v>
+        <v>1.041716575400619</v>
       </c>
       <c r="N7">
-        <v>1.001429614211818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01400258248486</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041588260916048</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033071250961907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9713305236888067</v>
+        <v>1.006349437237292</v>
       </c>
       <c r="D8">
-        <v>0.9851559416744234</v>
+        <v>1.017877722200987</v>
       </c>
       <c r="E8">
-        <v>0.9811590948599471</v>
+        <v>1.02044998118837</v>
       </c>
       <c r="F8">
-        <v>0.9862778558677081</v>
+        <v>1.028335986274098</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.049704710821924</v>
       </c>
       <c r="J8">
-        <v>0.9938043627868629</v>
+        <v>1.027775045485843</v>
       </c>
       <c r="K8">
-        <v>0.9965408116412312</v>
+        <v>1.028820853573845</v>
       </c>
       <c r="L8">
-        <v>0.9926004746620951</v>
+        <v>1.03135989014763</v>
       </c>
       <c r="M8">
-        <v>0.9976469675093652</v>
+        <v>1.039145335215717</v>
       </c>
       <c r="N8">
-        <v>0.9952156789729738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01322312608495</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039553296904377</v>
+      </c>
+      <c r="Q8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R8">
+        <v>1.031472124568678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9549134847867682</v>
+        <v>0.9978075509576521</v>
       </c>
       <c r="D9">
-        <v>0.9706253912267072</v>
+        <v>1.011728194876179</v>
       </c>
       <c r="E9">
-        <v>0.9676805777170462</v>
+        <v>1.013770365179385</v>
       </c>
       <c r="F9">
-        <v>0.9700052588066245</v>
+        <v>1.021685909739377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.047869840743424</v>
       </c>
       <c r="J9">
-        <v>0.982165375907355</v>
+        <v>1.023437968514133</v>
       </c>
       <c r="K9">
-        <v>0.9842137356028496</v>
+        <v>1.024633813564426</v>
       </c>
       <c r="L9">
-        <v>0.9813207231038871</v>
+        <v>1.026643909817681</v>
       </c>
       <c r="M9">
-        <v>0.9836044778011375</v>
+        <v>1.03443668029997</v>
       </c>
       <c r="N9">
-        <v>0.9835601633970866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011778659189149</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035826697631002</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028508336459599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9431895025140409</v>
+        <v>0.9919262488710872</v>
       </c>
       <c r="D10">
-        <v>0.9602948937115605</v>
+        <v>1.007540598044149</v>
       </c>
       <c r="E10">
-        <v>0.9581053417558791</v>
+        <v>1.009247480747669</v>
       </c>
       <c r="F10">
-        <v>0.958437942328785</v>
+        <v>1.017249310572023</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.046531123433445</v>
       </c>
       <c r="J10">
-        <v>0.9738536480301737</v>
+        <v>1.020463899885054</v>
       </c>
       <c r="K10">
-        <v>0.9754200528108247</v>
+        <v>1.021775026415589</v>
       </c>
       <c r="L10">
-        <v>0.973274586165545</v>
+        <v>1.023451752571575</v>
       </c>
       <c r="M10">
-        <v>0.9736004729423037</v>
+        <v>1.031313954424728</v>
       </c>
       <c r="N10">
-        <v>0.9752366319129513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01079248570269</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.033407005863434</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02650395473587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9378975529467793</v>
+        <v>0.9897768770827493</v>
       </c>
       <c r="D11">
-        <v>0.9556446151501345</v>
+        <v>1.006083307665783</v>
       </c>
       <c r="E11">
-        <v>0.9537972872271847</v>
+        <v>1.007927113625717</v>
       </c>
       <c r="F11">
-        <v>0.9532306834470059</v>
+        <v>1.01638662987801</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.04610044403278</v>
       </c>
       <c r="J11">
-        <v>0.9701032542897282</v>
+        <v>1.019581222218147</v>
       </c>
       <c r="K11">
-        <v>0.9714544585569939</v>
+        <v>1.020891406384154</v>
       </c>
       <c r="L11">
-        <v>0.9696464861036168</v>
+        <v>1.022701068711959</v>
       </c>
       <c r="M11">
-        <v>0.9690919937670203</v>
+        <v>1.031005996278929</v>
       </c>
       <c r="N11">
-        <v>0.9714809121832181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010530955548093</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033601967581421</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025912427476915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9358965460953665</v>
+        <v>0.9891298232446609</v>
       </c>
       <c r="D12">
-        <v>0.9538883057888807</v>
+        <v>1.005664776544781</v>
       </c>
       <c r="E12">
-        <v>0.9521706133734628</v>
+        <v>1.007671382897439</v>
       </c>
       <c r="F12">
-        <v>0.9512639209288802</v>
+        <v>1.016452682693931</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.045999168177831</v>
       </c>
       <c r="J12">
-        <v>0.9686854718135323</v>
+        <v>1.019401461178866</v>
       </c>
       <c r="K12">
-        <v>0.9699556659604286</v>
+        <v>1.020684247185337</v>
       </c>
       <c r="L12">
-        <v>0.9682753328573767</v>
+        <v>1.022653072472435</v>
       </c>
       <c r="M12">
-        <v>0.9673884330010991</v>
+        <v>1.031271320602336</v>
       </c>
       <c r="N12">
-        <v>0.970061116293284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010495221064035</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034139803784001</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025765955815297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9363274200485374</v>
+        <v>0.9896109927183441</v>
       </c>
       <c r="D13">
-        <v>0.9542663933033783</v>
+        <v>1.006037787624736</v>
       </c>
       <c r="E13">
-        <v>0.9525207755522458</v>
+        <v>1.008231738114518</v>
       </c>
       <c r="F13">
-        <v>0.9516873187695831</v>
+        <v>1.017260439218575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.046157159730807</v>
       </c>
       <c r="J13">
-        <v>0.9689907439787239</v>
+        <v>1.019767380227347</v>
       </c>
       <c r="K13">
-        <v>0.9702783654007547</v>
+        <v>1.021006571685741</v>
       </c>
       <c r="L13">
-        <v>0.968570546514924</v>
+        <v>1.023159402089868</v>
       </c>
       <c r="M13">
-        <v>0.9677552020038964</v>
+        <v>1.032021313036655</v>
       </c>
       <c r="N13">
-        <v>0.9703668219799657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010637595795191</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035010585061286</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025991331696657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9377328886035609</v>
+        <v>0.9904588961262161</v>
       </c>
       <c r="D14">
-        <v>0.9555000442275686</v>
+        <v>1.00665929762597</v>
       </c>
       <c r="E14">
-        <v>0.9536633791712857</v>
+        <v>1.008991638821559</v>
       </c>
       <c r="F14">
-        <v>0.9530687913040091</v>
+        <v>1.018159205214015</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012189</v>
+        <v>1.046384829357394</v>
       </c>
       <c r="J14">
-        <v>0.9699865765132287</v>
+        <v>1.020270284233027</v>
       </c>
       <c r="K14">
-        <v>0.9713311069904118</v>
+        <v>1.021473518211689</v>
       </c>
       <c r="L14">
-        <v>0.9695336374756215</v>
+        <v>1.023762704180737</v>
       </c>
       <c r="M14">
-        <v>0.9689517813863457</v>
+        <v>1.032763133597709</v>
       </c>
       <c r="N14">
-        <v>0.9713640687108929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010817839706037</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035770857212884</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026322927897784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.938594065665836</v>
+        <v>0.9909166794748752</v>
       </c>
       <c r="D15">
-        <v>0.9562562198738531</v>
+        <v>1.006990933645819</v>
       </c>
       <c r="E15">
-        <v>0.9543637988370416</v>
+        <v>1.009364627828738</v>
       </c>
       <c r="F15">
-        <v>0.9539155611004645</v>
+        <v>1.018557722639941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.046499230566838</v>
       </c>
       <c r="J15">
-        <v>0.9705968029912999</v>
+        <v>1.020518869993729</v>
       </c>
       <c r="K15">
-        <v>0.9719762514681191</v>
+        <v>1.021711002770218</v>
       </c>
       <c r="L15">
-        <v>0.9701238538092505</v>
+        <v>1.024041117094403</v>
       </c>
       <c r="M15">
-        <v>0.9696851267928394</v>
+        <v>1.033067920161917</v>
       </c>
       <c r="N15">
-        <v>0.9719751617805567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010903331270903</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036049400468576</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026496782855844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9435359275272511</v>
+        <v>0.9933162937283637</v>
       </c>
       <c r="D16">
-        <v>0.9605995891738024</v>
+        <v>1.008692746990394</v>
       </c>
       <c r="E16">
-        <v>0.9583876644599792</v>
+        <v>1.011177518756269</v>
       </c>
       <c r="F16">
-        <v>0.9587791226687348</v>
+        <v>1.02031575975813</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.047056968417111</v>
       </c>
       <c r="J16">
-        <v>0.9740991967383661</v>
+        <v>1.021719980588412</v>
       </c>
       <c r="K16">
-        <v>0.9756797384749673</v>
+        <v>1.02287058313954</v>
       </c>
       <c r="L16">
-        <v>0.9735121812023211</v>
+        <v>1.025311756549722</v>
       </c>
       <c r="M16">
-        <v>0.9738957678046557</v>
+        <v>1.034292015694462</v>
       </c>
       <c r="N16">
-        <v>0.975482529328474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011298042568758</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036978097020167</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027319868638256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9465761680832716</v>
+        <v>0.9947149178556397</v>
       </c>
       <c r="D17">
-        <v>0.9632750601090505</v>
+        <v>1.009675921821528</v>
       </c>
       <c r="E17">
-        <v>0.9608669436616961</v>
+        <v>1.012171923219032</v>
       </c>
       <c r="F17">
-        <v>0.9617749280358532</v>
+        <v>1.02118954836806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.047361855579472</v>
       </c>
       <c r="J17">
-        <v>0.9762543076575769</v>
+        <v>1.022377720013042</v>
       </c>
       <c r="K17">
-        <v>0.9779591817742519</v>
+        <v>1.023516397710257</v>
       </c>
       <c r="L17">
-        <v>0.9755977656126549</v>
+        <v>1.025969848109254</v>
       </c>
       <c r="M17">
-        <v>0.9764881055621879</v>
+        <v>1.034835975768079</v>
       </c>
       <c r="N17">
-        <v>0.977640700752385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011506293065372</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037278650189791</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027779110223664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9483289268464821</v>
+        <v>0.9953701656923493</v>
       </c>
       <c r="D18">
-        <v>0.9648187040684629</v>
+        <v>1.0101117404956</v>
       </c>
       <c r="E18">
-        <v>0.9622976005516398</v>
+        <v>1.012522723130367</v>
       </c>
       <c r="F18">
-        <v>0.9635033755907543</v>
+        <v>1.021325815606259</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.047474628019591</v>
       </c>
       <c r="J18">
-        <v>0.9774968888652039</v>
+        <v>1.022609230897158</v>
       </c>
       <c r="K18">
-        <v>0.979273662859973</v>
+        <v>1.023758185345364</v>
       </c>
       <c r="L18">
-        <v>0.9768004886253261</v>
+        <v>1.026128743244469</v>
       </c>
       <c r="M18">
-        <v>0.9779832994702106</v>
+        <v>1.034786318206605</v>
       </c>
       <c r="N18">
-        <v>0.9788850465678526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011565441884993</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037000917473785</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027938295969449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9489231693118391</v>
+        <v>0.9953621323219873</v>
       </c>
       <c r="D19">
-        <v>0.9653422457890005</v>
+        <v>1.010072295487351</v>
       </c>
       <c r="E19">
-        <v>0.9627828555602568</v>
+        <v>1.012292494978632</v>
       </c>
       <c r="F19">
-        <v>0.9640895940119748</v>
+        <v>1.02078851424497</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.047420417020358</v>
       </c>
       <c r="J19">
-        <v>0.9779181808342343</v>
+        <v>1.022465845684672</v>
       </c>
       <c r="K19">
-        <v>0.9797193682436613</v>
+        <v>1.023655780509627</v>
       </c>
       <c r="L19">
-        <v>0.9772083048696298</v>
+        <v>1.025838940616374</v>
       </c>
       <c r="M19">
-        <v>0.9784903273634493</v>
+        <v>1.034195133322345</v>
       </c>
       <c r="N19">
-        <v>0.979306936819802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011495473369595</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.036206664818034</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027872358693667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9462521262683617</v>
+        <v>0.9934790609017782</v>
       </c>
       <c r="D20">
-        <v>0.9629897730885857</v>
+        <v>1.008666837619709</v>
       </c>
       <c r="E20">
-        <v>0.9606025547477733</v>
+        <v>1.01044252744413</v>
       </c>
       <c r="F20">
-        <v>0.9614554857460533</v>
+        <v>1.01841919381726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.046895789928876</v>
       </c>
       <c r="J20">
-        <v>0.9760245937136157</v>
+        <v>1.02126368892477</v>
       </c>
       <c r="K20">
-        <v>0.9777161930499575</v>
+        <v>1.022558984031902</v>
       </c>
       <c r="L20">
-        <v>0.9753754385331608</v>
+        <v>1.024304209661004</v>
       </c>
       <c r="M20">
-        <v>0.9762117336948858</v>
+        <v>1.032145715700842</v>
       </c>
       <c r="N20">
-        <v>0.977410660588275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011060197514131</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034054647440025</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027100831728531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9373200145357198</v>
+        <v>0.9889723642700015</v>
       </c>
       <c r="D21">
-        <v>0.955137585580104</v>
+        <v>1.00545503141441</v>
       </c>
       <c r="E21">
-        <v>0.9533276601215296</v>
+        <v>1.006926998270847</v>
       </c>
       <c r="F21">
-        <v>0.9526629043159467</v>
+        <v>1.014891746728077</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.045825653352521</v>
       </c>
       <c r="J21">
-        <v>0.9696940281256982</v>
+        <v>1.018938493063532</v>
       </c>
       <c r="K21">
-        <v>0.9710218308168321</v>
+        <v>1.020333788331151</v>
       </c>
       <c r="L21">
-        <v>0.969250696487967</v>
+        <v>1.021778314280269</v>
       </c>
       <c r="M21">
-        <v>0.9686002371163619</v>
+        <v>1.029596378016606</v>
       </c>
       <c r="N21">
-        <v>0.9710711048710965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010283341848254</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031995887452745</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025530770386427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9314978087094098</v>
+        <v>0.9860979320285087</v>
       </c>
       <c r="D22">
-        <v>0.9500314837073021</v>
+        <v>1.003409296601829</v>
       </c>
       <c r="E22">
-        <v>0.9485992352489337</v>
+        <v>1.004712611621944</v>
       </c>
       <c r="F22">
-        <v>0.9469447029795648</v>
+        <v>1.012701401866748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.04512912732929</v>
       </c>
       <c r="J22">
-        <v>0.9655695683698119</v>
+        <v>1.017460664418729</v>
       </c>
       <c r="K22">
-        <v>0.9666623610037418</v>
+        <v>1.018913515865135</v>
       </c>
       <c r="L22">
-        <v>0.965262676396464</v>
+        <v>1.020191285292244</v>
       </c>
       <c r="M22">
-        <v>0.9636459256489608</v>
+        <v>1.028025372021829</v>
       </c>
       <c r="N22">
-        <v>0.9669407879092742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00979048599218</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030752525532959</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024512876672825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9346049145773144</v>
+        <v>0.9876173541403044</v>
       </c>
       <c r="D23">
-        <v>0.9527552286523644</v>
+        <v>1.004481640452423</v>
       </c>
       <c r="E23">
-        <v>0.9511212850719435</v>
+        <v>1.005881708808418</v>
       </c>
       <c r="F23">
-        <v>0.9499950361675006</v>
+        <v>1.013859137007453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.045497317361206</v>
       </c>
       <c r="J23">
-        <v>0.9677704153143456</v>
+        <v>1.018237650351025</v>
       </c>
       <c r="K23">
-        <v>0.9689884216101822</v>
+        <v>1.019654068550213</v>
       </c>
       <c r="L23">
-        <v>0.967390487567423</v>
+        <v>1.021027408565772</v>
       </c>
       <c r="M23">
-        <v>0.9662891553839019</v>
+        <v>1.028854380000977</v>
       </c>
       <c r="N23">
-        <v>0.9691447603089103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010048722971997</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031408638488639</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025026731910855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9463986101385202</v>
+        <v>0.9934937192423492</v>
       </c>
       <c r="D24">
-        <v>0.9631187341030835</v>
+        <v>1.00865881372888</v>
       </c>
       <c r="E24">
-        <v>0.9607220683494726</v>
+        <v>1.010421231781759</v>
       </c>
       <c r="F24">
-        <v>0.9615998863414748</v>
+        <v>1.018357824179999</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.046889291945119</v>
       </c>
       <c r="J24">
-        <v>0.9761284360916365</v>
+        <v>1.02124454409966</v>
       </c>
       <c r="K24">
-        <v>0.9778260356420245</v>
+        <v>1.022535558247372</v>
       </c>
       <c r="L24">
-        <v>0.97547594096405</v>
+        <v>1.024267777545192</v>
       </c>
       <c r="M24">
-        <v>0.9763366662123839</v>
+        <v>1.032070047226339</v>
       </c>
       <c r="N24">
-        <v>0.9775146504343829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011049717707691</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033953651502106</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027056536787582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9592856486312346</v>
+        <v>1.000074501582622</v>
       </c>
       <c r="D25">
-        <v>0.9744877620878966</v>
+        <v>1.013368305521233</v>
       </c>
       <c r="E25">
-        <v>0.9712622083984395</v>
+        <v>1.015537879549926</v>
       </c>
       <c r="F25">
-        <v>0.9743302068518002</v>
+        <v>1.023440545778232</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.048375097826872</v>
       </c>
       <c r="J25">
-        <v>0.985265437016154</v>
+        <v>1.024599358712363</v>
       </c>
       <c r="K25">
-        <v>0.9874954693268915</v>
+        <v>1.025762580687383</v>
       </c>
       <c r="L25">
-        <v>0.9843236491217633</v>
+        <v>1.027899684960928</v>
       </c>
       <c r="M25">
-        <v>0.9873405281127638</v>
+        <v>1.035685557569711</v>
       </c>
       <c r="N25">
-        <v>0.9866646269482423</v>
+        <v>1.012166793685207</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036815106029997</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029335361163132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005117242931062</v>
+        <v>1.005391599735866</v>
       </c>
       <c r="D2">
-        <v>1.016976682735795</v>
+        <v>1.017089834088871</v>
       </c>
       <c r="E2">
-        <v>1.019481956955127</v>
+        <v>1.019707935657665</v>
       </c>
       <c r="F2">
-        <v>1.027372627031468</v>
+        <v>1.027553406284589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049447902301049</v>
+        <v>1.049558349875885</v>
       </c>
       <c r="J2">
-        <v>1.02714596802912</v>
+        <v>1.027412236230346</v>
       </c>
       <c r="K2">
-        <v>1.028204465332562</v>
+        <v>1.028316105937071</v>
       </c>
       <c r="L2">
-        <v>1.03067638870166</v>
+        <v>1.030899369229654</v>
       </c>
       <c r="M2">
-        <v>1.038463347411785</v>
+        <v>1.038641773957075</v>
       </c>
       <c r="N2">
-        <v>1.013012634534703</v>
+        <v>1.014517682125973</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039013548370477</v>
+        <v>1.039154761296021</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031013143402549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031100946604784</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019638332917414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008698171412713</v>
+        <v>1.008822993033905</v>
       </c>
       <c r="D3">
-        <v>1.019565907617287</v>
+        <v>1.019445957399527</v>
       </c>
       <c r="E3">
-        <v>1.022297179424197</v>
+        <v>1.022402089547507</v>
       </c>
       <c r="F3">
-        <v>1.030182143357447</v>
+        <v>1.03026547202743</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050176326350512</v>
+        <v>1.050226706296775</v>
       </c>
       <c r="J3">
-        <v>1.028954491727656</v>
+        <v>1.029075990364184</v>
       </c>
       <c r="K3">
-        <v>1.029954413237089</v>
+        <v>1.02983592565003</v>
       </c>
       <c r="L3">
-        <v>1.032652496249864</v>
+        <v>1.032756135959771</v>
       </c>
       <c r="M3">
-        <v>1.040442870745142</v>
+        <v>1.040525209371833</v>
       </c>
       <c r="N3">
-        <v>1.013614759438164</v>
+        <v>1.014957316446706</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040580209896637</v>
+        <v>1.040645375388824</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032247842940332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032172642359542</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019946180486446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010972937998714</v>
+        <v>1.01100369989573</v>
       </c>
       <c r="D4">
-        <v>1.021217090567967</v>
+        <v>1.020949619813426</v>
       </c>
       <c r="E4">
-        <v>1.024091659973415</v>
+        <v>1.024120319587125</v>
       </c>
       <c r="F4">
-        <v>1.031975447751408</v>
+        <v>1.031997449835013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05062192313369</v>
+        <v>1.050634359715375</v>
       </c>
       <c r="J4">
-        <v>1.030100059703343</v>
+        <v>1.030130057588108</v>
       </c>
       <c r="K4">
-        <v>1.031066014285728</v>
+        <v>1.03080160915167</v>
       </c>
       <c r="L4">
-        <v>1.033907761444251</v>
+        <v>1.0339360949625</v>
       </c>
       <c r="M4">
-        <v>1.041702686228571</v>
+        <v>1.041724442651581</v>
       </c>
       <c r="N4">
-        <v>1.013996234840357</v>
+        <v>1.015235931789221</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041577268584093</v>
+        <v>1.041594487308292</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03303476063216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032856461984282</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020139476377646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011922566045209</v>
+        <v>1.011914189500891</v>
       </c>
       <c r="D5">
-        <v>1.021910746216675</v>
+        <v>1.021581760053218</v>
       </c>
       <c r="E5">
-        <v>1.0248423619974</v>
+        <v>1.024839267545601</v>
       </c>
       <c r="F5">
-        <v>1.032725713033949</v>
+        <v>1.032722188201344</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05080443654366</v>
+        <v>1.050801047684209</v>
       </c>
       <c r="J5">
-        <v>1.030578972569481</v>
+        <v>1.030570797904658</v>
       </c>
       <c r="K5">
-        <v>1.031533572555958</v>
+        <v>1.031208257082824</v>
       </c>
       <c r="L5">
-        <v>1.034432606560511</v>
+        <v>1.034429546379396</v>
       </c>
       <c r="M5">
-        <v>1.042229468671782</v>
+        <v>1.042225982148336</v>
       </c>
       <c r="N5">
-        <v>1.014155978310976</v>
+        <v>1.015352637695616</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041994180826244</v>
+        <v>1.0419914214824</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033372605213001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033151947844782</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020220834613899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012085310375685</v>
+        <v>1.012070136617011</v>
       </c>
       <c r="D6">
-        <v>1.022033156416004</v>
+        <v>1.021693563449086</v>
       </c>
       <c r="E6">
-        <v>1.024971258855496</v>
+        <v>1.024962641445393</v>
       </c>
       <c r="F6">
-        <v>1.032853918135306</v>
+        <v>1.032845955550825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050836290585847</v>
+        <v>1.05083015109538</v>
       </c>
       <c r="J6">
-        <v>1.030662824178592</v>
+        <v>1.030648014251285</v>
       </c>
       <c r="K6">
-        <v>1.031617996659878</v>
+        <v>1.031282175422695</v>
       </c>
       <c r="L6">
-        <v>1.034523594968611</v>
+        <v>1.034515072557763</v>
       </c>
       <c r="M6">
-        <v>1.04232016937176</v>
+        <v>1.042312292931849</v>
       </c>
       <c r="N6">
-        <v>1.014184249578639</v>
+        <v>1.015373312472094</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042065964197017</v>
+        <v>1.042059730536405</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033441123878752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033213907413512</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020236224623552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010996080920816</v>
+        <v>1.011031863435605</v>
       </c>
       <c r="D7">
-        <v>1.021243211958493</v>
+        <v>1.020978976965375</v>
       </c>
       <c r="E7">
-        <v>1.024110383030954</v>
+        <v>1.024143212964039</v>
       </c>
       <c r="F7">
-        <v>1.03199240339609</v>
+        <v>1.032017729291592</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050628596658043</v>
+        <v>1.050643063148451</v>
       </c>
       <c r="J7">
-        <v>1.03011663846769</v>
+        <v>1.030151532661689</v>
       </c>
       <c r="K7">
-        <v>1.031088918661253</v>
+        <v>1.030827710986623</v>
       </c>
       <c r="L7">
-        <v>1.033923364670471</v>
+        <v>1.033955821200737</v>
       </c>
       <c r="M7">
-        <v>1.041716575400619</v>
+        <v>1.041741618630845</v>
       </c>
       <c r="N7">
-        <v>1.01400258248486</v>
+        <v>1.015268025958694</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041588260916048</v>
+        <v>1.041608080923535</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033071250961907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032897213583911</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020146966346797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006349437237292</v>
+        <v>1.006590889527019</v>
       </c>
       <c r="D8">
-        <v>1.017877722200987</v>
+        <v>1.017925365142003</v>
       </c>
       <c r="E8">
-        <v>1.02044998118837</v>
+        <v>1.020649721449434</v>
       </c>
       <c r="F8">
-        <v>1.028335986274098</v>
+        <v>1.028495520463703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049704710821924</v>
+        <v>1.049801998011971</v>
       </c>
       <c r="J8">
-        <v>1.027775045485843</v>
+        <v>1.02800961640613</v>
       </c>
       <c r="K8">
-        <v>1.028820853573845</v>
+        <v>1.028867879265055</v>
       </c>
       <c r="L8">
-        <v>1.03135989014763</v>
+        <v>1.031557059394424</v>
       </c>
       <c r="M8">
-        <v>1.039145335215717</v>
+        <v>1.03930285493221</v>
       </c>
       <c r="N8">
-        <v>1.01322312608495</v>
+        <v>1.014754706113858</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039553296904377</v>
+        <v>1.039677963351795</v>
       </c>
       <c r="Q8">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031472124568678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031516504285527</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019754398907879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9978075509576521</v>
+        <v>0.9984146176830253</v>
       </c>
       <c r="D9">
-        <v>1.011728194876179</v>
+        <v>1.012337720120984</v>
       </c>
       <c r="E9">
-        <v>1.013770365179385</v>
+        <v>1.014265520560124</v>
       </c>
       <c r="F9">
-        <v>1.021685909739377</v>
+        <v>1.022083527295703</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047869840743424</v>
+        <v>1.048112943081572</v>
       </c>
       <c r="J9">
-        <v>1.023437968514133</v>
+        <v>1.024023484367748</v>
       </c>
       <c r="K9">
-        <v>1.024633813564426</v>
+        <v>1.02523374835308</v>
       </c>
       <c r="L9">
-        <v>1.026643909817681</v>
+        <v>1.027131313235534</v>
       </c>
       <c r="M9">
-        <v>1.03443668029997</v>
+        <v>1.034828194616258</v>
       </c>
       <c r="N9">
-        <v>1.011778659189149</v>
+        <v>1.013710641298776</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035826697631002</v>
+        <v>1.036136556920552</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028508336459599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028943400303361</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019003719399032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9919262488710872</v>
+        <v>0.9928163300697285</v>
       </c>
       <c r="D10">
-        <v>1.007540598044149</v>
+        <v>1.008559534231123</v>
       </c>
       <c r="E10">
-        <v>1.009247480747669</v>
+        <v>1.009970847673719</v>
       </c>
       <c r="F10">
-        <v>1.017249310572023</v>
+        <v>1.017830993507883</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046531123433445</v>
+        <v>1.046886044373222</v>
       </c>
       <c r="J10">
-        <v>1.020463899885054</v>
+        <v>1.021317891628052</v>
       </c>
       <c r="K10">
-        <v>1.021775026415589</v>
+        <v>1.022775944505963</v>
       </c>
       <c r="L10">
-        <v>1.023451752571575</v>
+        <v>1.024162379191279</v>
       </c>
       <c r="M10">
-        <v>1.031313954424728</v>
+        <v>1.031885597980983</v>
       </c>
       <c r="N10">
-        <v>1.01079248570269</v>
+        <v>1.013115425007989</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033407005863434</v>
+        <v>1.03385939923676</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02650395473587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027224230404658</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018491115933336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9897768770827493</v>
+        <v>0.9907960758198221</v>
       </c>
       <c r="D11">
-        <v>1.006083307665783</v>
+        <v>1.007264766808817</v>
       </c>
       <c r="E11">
-        <v>1.007927113625717</v>
+        <v>1.008752735285055</v>
       </c>
       <c r="F11">
-        <v>1.01638662987801</v>
+        <v>1.017050499772567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04610044403278</v>
+        <v>1.046506104462099</v>
       </c>
       <c r="J11">
-        <v>1.019581222218147</v>
+        <v>1.020556825603914</v>
       </c>
       <c r="K11">
-        <v>1.020891406384154</v>
+        <v>1.022050968489012</v>
       </c>
       <c r="L11">
-        <v>1.022701068711959</v>
+        <v>1.023511454218632</v>
       </c>
       <c r="M11">
-        <v>1.031005996278929</v>
+        <v>1.031657876126144</v>
       </c>
       <c r="N11">
-        <v>1.010530955548093</v>
+        <v>1.013164251854626</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033601967581421</v>
+        <v>1.034117596900573</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025912427476915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02674808375246</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018374108450975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9891298232446609</v>
+        <v>0.9901858131861832</v>
       </c>
       <c r="D12">
-        <v>1.005664776544781</v>
+        <v>1.006890197701753</v>
       </c>
       <c r="E12">
-        <v>1.007671382897439</v>
+        <v>1.00852466905086</v>
       </c>
       <c r="F12">
-        <v>1.016452682693931</v>
+        <v>1.017138819758485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045999168177831</v>
+        <v>1.046419190664766</v>
       </c>
       <c r="J12">
-        <v>1.019401461178866</v>
+        <v>1.020411414076599</v>
       </c>
       <c r="K12">
-        <v>1.020684247185337</v>
+        <v>1.021886572314101</v>
       </c>
       <c r="L12">
-        <v>1.022653072472435</v>
+        <v>1.023490352145919</v>
       </c>
       <c r="M12">
-        <v>1.031271320602336</v>
+        <v>1.031944871866469</v>
       </c>
       <c r="N12">
-        <v>1.010495221064035</v>
+        <v>1.013243299152748</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034139803784001</v>
+        <v>1.034672392919625</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025765955815297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026631850377277</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018363644010023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9896109927183441</v>
+        <v>0.9906258983382605</v>
       </c>
       <c r="D13">
-        <v>1.006037787624736</v>
+        <v>1.007211171260049</v>
       </c>
       <c r="E13">
-        <v>1.008231738114518</v>
+        <v>1.009049896240986</v>
       </c>
       <c r="F13">
-        <v>1.017260439218575</v>
+        <v>1.017918447629197</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046157159730807</v>
+        <v>1.046560915021829</v>
       </c>
       <c r="J13">
-        <v>1.019767380227347</v>
+        <v>1.020738260787267</v>
       </c>
       <c r="K13">
-        <v>1.021006571685741</v>
+        <v>1.022157934100942</v>
       </c>
       <c r="L13">
-        <v>1.023159402089868</v>
+        <v>1.023962285630315</v>
       </c>
       <c r="M13">
-        <v>1.032021313036655</v>
+        <v>1.032667316391723</v>
       </c>
       <c r="N13">
-        <v>1.010637595795191</v>
+        <v>1.013320707970695</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035010585061286</v>
+        <v>1.035521262272585</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025991331696657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026820946915674</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01844014155468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9904588961262161</v>
+        <v>0.9914103592676774</v>
       </c>
       <c r="D14">
-        <v>1.00665929762597</v>
+        <v>1.007753318917489</v>
       </c>
       <c r="E14">
-        <v>1.008991638821559</v>
+        <v>1.009757440107482</v>
       </c>
       <c r="F14">
-        <v>1.018159205214015</v>
+        <v>1.018775228788263</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046384829357394</v>
+        <v>1.046763540738407</v>
       </c>
       <c r="J14">
-        <v>1.020270284233027</v>
+        <v>1.021181067030775</v>
       </c>
       <c r="K14">
-        <v>1.021473518211689</v>
+        <v>1.022547264436323</v>
       </c>
       <c r="L14">
-        <v>1.023762704180737</v>
+        <v>1.02451439251976</v>
       </c>
       <c r="M14">
-        <v>1.032763133597709</v>
+        <v>1.033368066398217</v>
       </c>
       <c r="N14">
-        <v>1.010817839706037</v>
+        <v>1.013375344635373</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035770857212884</v>
+        <v>1.036249002559351</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026322927897784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027097796376331</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018533771560022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9909166794748752</v>
+        <v>0.9918360039102218</v>
       </c>
       <c r="D15">
-        <v>1.006990933645819</v>
+        <v>1.008044663970267</v>
       </c>
       <c r="E15">
-        <v>1.009364627828738</v>
+        <v>1.010104290483201</v>
       </c>
       <c r="F15">
-        <v>1.018557722639941</v>
+        <v>1.019152753497545</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046499230566838</v>
+        <v>1.046865262861172</v>
       </c>
       <c r="J15">
-        <v>1.020518869993729</v>
+        <v>1.021399232122084</v>
       </c>
       <c r="K15">
-        <v>1.021711002770218</v>
+        <v>1.022745354125613</v>
       </c>
       <c r="L15">
-        <v>1.024041117094403</v>
+        <v>1.024767254394988</v>
       </c>
       <c r="M15">
-        <v>1.033067920161917</v>
+        <v>1.033652321861564</v>
       </c>
       <c r="N15">
-        <v>1.010903331270903</v>
+        <v>1.013393300829248</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036049400468576</v>
+        <v>1.036511305625764</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026496782855844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027244363490273</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018578097217194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9933162937283637</v>
+        <v>0.9940832147213975</v>
       </c>
       <c r="D16">
-        <v>1.008692746990394</v>
+        <v>1.009551401650555</v>
       </c>
       <c r="E16">
-        <v>1.011177518756269</v>
+        <v>1.011794805462833</v>
       </c>
       <c r="F16">
-        <v>1.02031575975813</v>
+        <v>1.020812302120803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047056968417111</v>
+        <v>1.047362857315883</v>
       </c>
       <c r="J16">
-        <v>1.021719980588412</v>
+        <v>1.022456022980741</v>
       </c>
       <c r="K16">
-        <v>1.02287058313954</v>
+        <v>1.023714140205091</v>
       </c>
       <c r="L16">
-        <v>1.025311756549722</v>
+        <v>1.025918255213584</v>
       </c>
       <c r="M16">
-        <v>1.034292015694462</v>
+        <v>1.034780078491628</v>
       </c>
       <c r="N16">
-        <v>1.011298042568758</v>
+        <v>1.013463433898285</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036978097020167</v>
+        <v>1.037363867977574</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027319868638256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027932841779215</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018776994120895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9947149178556397</v>
+        <v>0.995404727801477</v>
       </c>
       <c r="D17">
-        <v>1.009675921821528</v>
+        <v>1.010431476262231</v>
       </c>
       <c r="E17">
-        <v>1.012171923219032</v>
+        <v>1.012727856504767</v>
       </c>
       <c r="F17">
-        <v>1.02118954836806</v>
+        <v>1.02163663888187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047361855579472</v>
+        <v>1.047637285648861</v>
       </c>
       <c r="J17">
-        <v>1.022377720013042</v>
+        <v>1.023040648124922</v>
       </c>
       <c r="K17">
-        <v>1.023516397710257</v>
+        <v>1.024259043052686</v>
       </c>
       <c r="L17">
-        <v>1.025969848109254</v>
+        <v>1.02651634089787</v>
       </c>
       <c r="M17">
-        <v>1.034835975768079</v>
+        <v>1.0352756446866</v>
       </c>
       <c r="N17">
-        <v>1.011506293065372</v>
+        <v>1.013516894721496</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037278650189791</v>
+        <v>1.037626204808358</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027779110223664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028320977885234</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018881520906271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9953701656923493</v>
+        <v>0.9960330146827662</v>
       </c>
       <c r="D18">
-        <v>1.0101117404956</v>
+        <v>1.01082880562986</v>
       </c>
       <c r="E18">
-        <v>1.012522723130367</v>
+        <v>1.01305812359079</v>
       </c>
       <c r="F18">
-        <v>1.021325815606259</v>
+        <v>1.021756269507946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047474628019591</v>
+        <v>1.047739454490018</v>
       </c>
       <c r="J18">
-        <v>1.022609230897158</v>
+        <v>1.023246732217284</v>
       </c>
       <c r="K18">
-        <v>1.023758185345364</v>
+        <v>1.024463201535494</v>
       </c>
       <c r="L18">
-        <v>1.026128743244469</v>
+        <v>1.026655200331284</v>
       </c>
       <c r="M18">
-        <v>1.034786318206605</v>
+        <v>1.035209739229755</v>
       </c>
       <c r="N18">
-        <v>1.011565441884993</v>
+        <v>1.013518179149277</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037000917473785</v>
+        <v>1.037335698455573</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027938295969449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028452423869384</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018906635561846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9953621323219873</v>
+        <v>0.9960372884446093</v>
       </c>
       <c r="D19">
-        <v>1.010072295487351</v>
+        <v>1.010804286096439</v>
       </c>
       <c r="E19">
-        <v>1.012292494978632</v>
+        <v>1.012839324577111</v>
       </c>
       <c r="F19">
-        <v>1.02078851424497</v>
+        <v>1.021228081527522</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047420417020358</v>
+        <v>1.047690210204485</v>
       </c>
       <c r="J19">
-        <v>1.022465845684672</v>
+        <v>1.023115334542944</v>
       </c>
       <c r="K19">
-        <v>1.023655780509627</v>
+        <v>1.024375536220684</v>
       </c>
       <c r="L19">
-        <v>1.025838940616374</v>
+        <v>1.026376679600265</v>
       </c>
       <c r="M19">
-        <v>1.034195133322345</v>
+        <v>1.034627547569299</v>
       </c>
       <c r="N19">
-        <v>1.011495473369595</v>
+        <v>1.013456548683928</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.036206664818034</v>
+        <v>1.036548668941274</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027872358693667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028397531542786</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018866164296521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934790609017782</v>
+        <v>0.9942758095992031</v>
       </c>
       <c r="D20">
-        <v>1.008666837619709</v>
+        <v>1.009562988344709</v>
       </c>
       <c r="E20">
-        <v>1.01044252744413</v>
+        <v>1.011090155290147</v>
       </c>
       <c r="F20">
-        <v>1.01841919381726</v>
+        <v>1.018939921975682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046895789928876</v>
+        <v>1.047213846093452</v>
       </c>
       <c r="J20">
-        <v>1.02126368892477</v>
+        <v>1.022029186559292</v>
       </c>
       <c r="K20">
-        <v>1.022558984031902</v>
+        <v>1.023439742850585</v>
       </c>
       <c r="L20">
-        <v>1.024304209661004</v>
+        <v>1.024940761038736</v>
       </c>
       <c r="M20">
-        <v>1.032145715700842</v>
+        <v>1.032657715245082</v>
       </c>
       <c r="N20">
-        <v>1.011060197514131</v>
+        <v>1.013206348672422</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034054647440025</v>
+        <v>1.034459843993886</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027100831728531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027740234877934</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018633231236569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9889723642700015</v>
+        <v>0.9900740743119857</v>
       </c>
       <c r="D21">
-        <v>1.00545503141441</v>
+        <v>1.006735368842457</v>
       </c>
       <c r="E21">
-        <v>1.006926998270847</v>
+        <v>1.007822959567563</v>
       </c>
       <c r="F21">
-        <v>1.014891746728077</v>
+        <v>1.015612204320911</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045825653352521</v>
+        <v>1.046264038935341</v>
       </c>
       <c r="J21">
-        <v>1.018938493063532</v>
+        <v>1.01999273734277</v>
       </c>
       <c r="K21">
-        <v>1.020333788331151</v>
+        <v>1.021590251345568</v>
       </c>
       <c r="L21">
-        <v>1.021778314280269</v>
+        <v>1.022657623943966</v>
       </c>
       <c r="M21">
-        <v>1.029596378016606</v>
+        <v>1.030303714773247</v>
       </c>
       <c r="N21">
-        <v>1.010283341848254</v>
+        <v>1.013082529606433</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031995887452745</v>
+        <v>1.032555703554506</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025530770386427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026436152126173</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018244431128493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9860979320285087</v>
+        <v>0.9873928418266499</v>
       </c>
       <c r="D22">
-        <v>1.003409296601829</v>
+        <v>1.00493300925459</v>
       </c>
       <c r="E22">
-        <v>1.004712611621944</v>
+        <v>1.005765733061844</v>
       </c>
       <c r="F22">
-        <v>1.012701401866748</v>
+        <v>1.01354828712443</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04512912732929</v>
+        <v>1.045643327708663</v>
       </c>
       <c r="J22">
-        <v>1.017460664418729</v>
+        <v>1.01869652495517</v>
       </c>
       <c r="K22">
-        <v>1.018913515865135</v>
+        <v>1.02040737162023</v>
       </c>
       <c r="L22">
-        <v>1.020191285292244</v>
+        <v>1.021223828486695</v>
       </c>
       <c r="M22">
-        <v>1.028025372021829</v>
+        <v>1.028856044374016</v>
       </c>
       <c r="N22">
-        <v>1.00979048599218</v>
+        <v>1.01299642906891</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030752525532959</v>
+        <v>1.031409955745199</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024512876672825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025584819662825</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017993895494804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9876173541403044</v>
+        <v>0.9888006959748489</v>
       </c>
       <c r="D23">
-        <v>1.004481640452423</v>
+        <v>1.005869276805023</v>
       </c>
       <c r="E23">
-        <v>1.005881708808418</v>
+        <v>1.006843887037171</v>
       </c>
       <c r="F23">
-        <v>1.013859137007453</v>
+        <v>1.014632927657134</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045497317361206</v>
+        <v>1.045967730484245</v>
       </c>
       <c r="J23">
-        <v>1.018237650351025</v>
+        <v>1.019368618144912</v>
       </c>
       <c r="K23">
-        <v>1.019654068550213</v>
+        <v>1.021015213470216</v>
       </c>
       <c r="L23">
-        <v>1.021027408565772</v>
+        <v>1.021971274459633</v>
       </c>
       <c r="M23">
-        <v>1.028854380000977</v>
+        <v>1.029613740948429</v>
       </c>
       <c r="N23">
-        <v>1.010048722971997</v>
+        <v>1.012998087416101</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031408638488639</v>
+        <v>1.032009629213671</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025026731910855</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02600389807659</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018120404458525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9934937192423492</v>
+        <v>0.9942914529147145</v>
       </c>
       <c r="D24">
-        <v>1.00865881372888</v>
+        <v>1.009555983534423</v>
       </c>
       <c r="E24">
-        <v>1.010421231781759</v>
+        <v>1.011069903832314</v>
       </c>
       <c r="F24">
-        <v>1.018357824179999</v>
+        <v>1.018879388998853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046889291945119</v>
+        <v>1.047207756209701</v>
       </c>
       <c r="J24">
-        <v>1.02124454409966</v>
+        <v>1.022011033444782</v>
       </c>
       <c r="K24">
-        <v>1.022535558247372</v>
+        <v>1.023417338163544</v>
       </c>
       <c r="L24">
-        <v>1.024267777545192</v>
+        <v>1.024905368940281</v>
       </c>
       <c r="M24">
-        <v>1.032070047226339</v>
+        <v>1.032582879271443</v>
       </c>
       <c r="N24">
-        <v>1.011049717707691</v>
+        <v>1.013194695377173</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033953651502106</v>
+        <v>1.03435952729505</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027056536787582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027693995957638</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018623186159024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000074501582622</v>
+        <v>1.000575364865001</v>
       </c>
       <c r="D25">
-        <v>1.013368305521233</v>
+        <v>1.013821670731884</v>
       </c>
       <c r="E25">
-        <v>1.015537879549926</v>
+        <v>1.015947122084441</v>
       </c>
       <c r="F25">
-        <v>1.023440545778232</v>
+        <v>1.023768933066509</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048375097826872</v>
+        <v>1.048575995400981</v>
       </c>
       <c r="J25">
-        <v>1.024599358712363</v>
+        <v>1.025083381190061</v>
       </c>
       <c r="K25">
-        <v>1.025762580687383</v>
+        <v>1.026209146236547</v>
       </c>
       <c r="L25">
-        <v>1.027899684960928</v>
+        <v>1.02830282256118</v>
       </c>
       <c r="M25">
-        <v>1.035685557569711</v>
+        <v>1.036009141135176</v>
       </c>
       <c r="N25">
-        <v>1.012166793685207</v>
+        <v>1.013958908521692</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036815106029997</v>
+        <v>1.037071201998379</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029335361163132</v>
+        <v>1.02966477769155</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019209238853533</v>
       </c>
     </row>
   </sheetData>
